--- a/grupos/2AEV - Estadisticos 2020.xlsx
+++ b/grupos/2AEV - Estadisticos 2020.xlsx
@@ -3340,6 +3340,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5676,7 +5677,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6321,6 +6323,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/2AEV - Estadisticos 2020.xlsx
+++ b/grupos/2AEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="161">
   <si>
     <t>Materia</t>
   </si>
@@ -218,6 +218,9 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>AVENDAÑO</t>
+  </si>
+  <si>
     <t>BAEZ</t>
   </si>
   <si>
@@ -233,6 +236,9 @@
     <t>CHAVEZ</t>
   </si>
   <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
     <t>CUAQUEHUA</t>
   </si>
   <si>
@@ -251,12 +257,18 @@
     <t>MARROQUIN</t>
   </si>
   <si>
+    <t>MAYAHUA</t>
+  </si>
+  <si>
     <t>MIXCOHA</t>
   </si>
   <si>
     <t>MORALES</t>
   </si>
   <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
     <t>PAZ</t>
   </si>
   <si>
@@ -272,6 +284,9 @@
     <t>ROBLES</t>
   </si>
   <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
     <t>ROSETE</t>
   </si>
   <si>
@@ -293,6 +308,9 @@
     <t>OJEDA</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>FLORES</t>
   </si>
   <si>
@@ -302,12 +320,12 @@
     <t>MEDINA</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
     <t>RAMOS</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>XALAMIHUA</t>
   </si>
   <si>
@@ -332,13 +350,16 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>TEMOXTLE</t>
+  </si>
+  <si>
     <t>EVARISTO</t>
   </si>
   <si>
     <t>BAROJAS</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
+    <t>CASTRO</t>
   </si>
   <si>
     <t>ALAMILLO</t>
@@ -377,6 +398,9 @@
     <t>YAEL</t>
   </si>
   <si>
+    <t>AXEL JESUS</t>
+  </si>
+  <si>
     <t>MARCO ANTONIO</t>
   </si>
   <si>
@@ -392,6 +416,9 @@
     <t>NORKYS AIRY</t>
   </si>
   <si>
+    <t>JORGE HUMBERTO</t>
+  </si>
+  <si>
     <t>JOSE DANIEL</t>
   </si>
   <si>
@@ -422,6 +449,9 @@
     <t>GABRIEL JOSUE</t>
   </si>
   <si>
+    <t>ELIAS</t>
+  </si>
+  <si>
     <t>ALEJANDRO</t>
   </si>
   <si>
@@ -446,6 +476,9 @@
     <t>ALAN URIEL</t>
   </si>
   <si>
+    <t>AMANDA MICHEL</t>
+  </si>
+  <si>
     <t>VICTOR GAEL</t>
   </si>
   <si>
@@ -468,39 +501,6 @@
   </si>
   <si>
     <t>ZGAIP</t>
-  </si>
-  <si>
-    <t>AVENDAÑO</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>MAYAHUA</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>TEMOXTLE</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>AXEL JESUS</t>
-  </si>
-  <si>
-    <t>JORGE HUMBERTO</t>
-  </si>
-  <si>
-    <t>ELIAS</t>
-  </si>
-  <si>
-    <t>AMANDA MICHEL</t>
   </si>
 </sst>
 </file>
@@ -3334,7 +3334,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3366,76 +3366,76 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920071</v>
+        <v>20330051920041</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920071</v>
+        <v>20330051920041</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920071</v>
+        <v>20330051920041</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920071</v>
+        <v>20330051920041</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -3446,76 +3446,76 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920072</v>
+        <v>20330051920041</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920072</v>
+        <v>20330051920041</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920072</v>
+        <v>20330051920071</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920073</v>
+        <v>20330051920071</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -3526,96 +3526,96 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920073</v>
+        <v>20330051920071</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920073</v>
+        <v>20330051920071</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920073</v>
+        <v>20330051920071</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920359</v>
+        <v>20330051920071</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920074</v>
+        <v>20330051920072</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -3626,36 +3626,36 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920074</v>
+        <v>20330051920072</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920074</v>
+        <v>20330051920072</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -3666,196 +3666,196 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920074</v>
+        <v>20330051920072</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920074</v>
+        <v>20330051920072</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920076</v>
+        <v>20330051920072</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920076</v>
+        <v>20330051920073</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920076</v>
+        <v>20330051920073</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920076</v>
+        <v>20330051920073</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920076</v>
+        <v>20330051920073</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920076</v>
+        <v>20330051920073</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920077</v>
+        <v>20330051920073</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920077</v>
+        <v>20330051920359</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
@@ -3866,76 +3866,76 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920077</v>
+        <v>20330051920359</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920077</v>
+        <v>20330051920359</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920078</v>
+        <v>20330051920359</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920078</v>
+        <v>20330051920359</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -3946,16 +3946,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920078</v>
+        <v>20330051920359</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -3966,56 +3966,56 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920078</v>
+        <v>20330051920074</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920080</v>
+        <v>20330051920074</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920080</v>
+        <v>20330051920074</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
@@ -4026,156 +4026,156 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920080</v>
+        <v>20330051920074</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920080</v>
+        <v>20330051920074</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920080</v>
+        <v>20330051920074</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920081</v>
+        <v>20330051920075</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920081</v>
+        <v>20330051920075</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920081</v>
+        <v>20330051920075</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920081</v>
+        <v>20330051920075</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920082</v>
+        <v>20330051920075</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -4186,76 +4186,76 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920082</v>
+        <v>20330051920075</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920082</v>
+        <v>20330051920076</v>
       </c>
       <c r="B44" t="s">
         <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920082</v>
+        <v>20330051920076</v>
       </c>
       <c r="B45" t="s">
         <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920082</v>
+        <v>20330051920076</v>
       </c>
       <c r="B46" t="s">
         <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
@@ -4266,96 +4266,96 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920083</v>
+        <v>20330051920076</v>
       </c>
       <c r="B47" t="s">
         <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920083</v>
+        <v>20330051920076</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920083</v>
+        <v>20330051920076</v>
       </c>
       <c r="B49" t="s">
         <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920083</v>
+        <v>20330051920077</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920083</v>
+        <v>20330051920077</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -4366,16 +4366,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920083</v>
+        <v>20330051920077</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -4386,16 +4386,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920084</v>
+        <v>20330051920077</v>
       </c>
       <c r="B53" t="s">
         <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -4406,216 +4406,216 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920084</v>
+        <v>20330051920077</v>
       </c>
       <c r="B54" t="s">
         <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920084</v>
+        <v>20330051920077</v>
       </c>
       <c r="B55" t="s">
         <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920084</v>
+        <v>20330051920078</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E56" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920085</v>
+        <v>20330051920078</v>
       </c>
       <c r="B57" t="s">
         <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920085</v>
+        <v>20330051920078</v>
       </c>
       <c r="B58" t="s">
         <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20330051920085</v>
+        <v>20330051920078</v>
       </c>
       <c r="B59" t="s">
         <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20330051920085</v>
+        <v>20330051920078</v>
       </c>
       <c r="B60" t="s">
         <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20330051920085</v>
+        <v>20330051920078</v>
       </c>
       <c r="B61" t="s">
         <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20330051920085</v>
+        <v>20330051920080</v>
       </c>
       <c r="B62" t="s">
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E62" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20330051920087</v>
+        <v>20330051920080</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D63" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>20330051920087</v>
+        <v>20330051920080</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D64" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
@@ -4626,76 +4626,76 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20330051920087</v>
+        <v>20330051920080</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>20330051920089</v>
+        <v>20330051920080</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
         <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>20330051920089</v>
+        <v>20330051920080</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
         <v>104</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>20330051920089</v>
+        <v>20330051920081</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D68" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
@@ -4706,116 +4706,116 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>20330051920089</v>
+        <v>20330051920081</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E69" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>20330051920089</v>
+        <v>20330051920081</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D70" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>20330051920090</v>
+        <v>20330051920081</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
         <v>105</v>
       </c>
       <c r="D71" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>20330051920090</v>
+        <v>20330051920081</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
         <v>105</v>
       </c>
       <c r="D72" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E72" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>20330051920090</v>
+        <v>20330051920081</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
         <v>105</v>
       </c>
       <c r="D73" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>20330051920092</v>
+        <v>20330051920082</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
         <v>106</v>
       </c>
       <c r="D74" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
@@ -4826,36 +4826,36 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>20330051920092</v>
+        <v>20330051920082</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
         <v>106</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>20330051920092</v>
+        <v>20330051920082</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
         <v>106</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E76" t="s">
         <v>6</v>
@@ -4866,16 +4866,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>20330051920092</v>
+        <v>20330051920082</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
         <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -4886,36 +4886,36 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>20330051920092</v>
+        <v>20330051920082</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
         <v>106</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>20330051920093</v>
+        <v>20330051920082</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D79" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
@@ -4926,76 +4926,76 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>20330051920093</v>
+        <v>20330051920083</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>20330051920094</v>
+        <v>20330051920083</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D81" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>20330051920094</v>
+        <v>20330051920083</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>20330051920094</v>
+        <v>20330051920083</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
@@ -5006,36 +5006,36 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>20330051920094</v>
+        <v>20330051920083</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>20330051920094</v>
+        <v>20330051920083</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D85" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
@@ -5046,236 +5046,236 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>20330051920094</v>
+        <v>20330051920084</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E86" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>20330051920058</v>
+        <v>20330051920084</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D87" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>20330051920059</v>
+        <v>20330051920084</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D88" t="s">
         <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>20330051920059</v>
+        <v>20330051920084</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D89" t="s">
         <v>140</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>20330051920059</v>
+        <v>20330051920084</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D90" t="s">
         <v>140</v>
       </c>
       <c r="E90" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>20330051920061</v>
+        <v>20330051920084</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>20330051920063</v>
+        <v>20330051920085</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E92" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>20330051920063</v>
+        <v>20330051920085</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>20330051920063</v>
+        <v>20330051920085</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>20330051920063</v>
+        <v>20330051920085</v>
       </c>
       <c r="B95" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E95" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>20330051920063</v>
+        <v>20330051920085</v>
       </c>
       <c r="B96" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E96" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>20330051920064</v>
+        <v>20330051920085</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D97" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E97" t="s">
         <v>6</v>
@@ -5286,16 +5286,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>20330051920065</v>
+        <v>20330051920087</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D98" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
@@ -5306,56 +5306,56 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>20330051920065</v>
+        <v>20330051920087</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>20330051920065</v>
+        <v>20330051920087</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D100" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E100" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>20330051920066</v>
+        <v>20330051920087</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C101" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D101" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E101" t="s">
         <v>6</v>
@@ -5366,156 +5366,156 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>20330051920066</v>
+        <v>20330051920087</v>
       </c>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D102" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E102" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F102" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>20330051920068</v>
+        <v>20330051920087</v>
       </c>
       <c r="B103" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C103" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D103" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E103" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>20330051920070</v>
+        <v>20330051920088</v>
       </c>
       <c r="B104" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D104" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>20330051920070</v>
+        <v>20330051920088</v>
       </c>
       <c r="B105" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C105" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D105" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E105" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>20330051920070</v>
+        <v>20330051920088</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C106" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D106" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F106" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>20330051920070</v>
+        <v>20330051920088</v>
       </c>
       <c r="B107" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C107" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D107" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E107" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>20330051920070</v>
+        <v>20330051920088</v>
       </c>
       <c r="B108" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C108" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D108" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E108" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F108" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>20330051920069</v>
+        <v>20330051920088</v>
       </c>
       <c r="B109" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C109" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D109" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E109" t="s">
         <v>4</v>
@@ -5526,16 +5526,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>20330051920069</v>
+        <v>20330051920089</v>
       </c>
       <c r="B110" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C110" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D110" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E110" t="s">
         <v>6</v>
@@ -5546,96 +5546,96 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>20330051920069</v>
+        <v>20330051920089</v>
       </c>
       <c r="B111" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C111" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D111" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E111" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>20330051920069</v>
+        <v>20330051920089</v>
       </c>
       <c r="B112" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C112" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D112" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E112" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>20330051920386</v>
+        <v>20330051920089</v>
       </c>
       <c r="B113" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C113" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D113" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F113" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>20330051920386</v>
+        <v>20330051920089</v>
       </c>
       <c r="B114" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C114" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D114" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E114" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F114" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>20330051920386</v>
+        <v>20330051920089</v>
       </c>
       <c r="B115" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C115" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D115" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E115" t="s">
         <v>5</v>
@@ -5646,22 +5646,2042 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
+        <v>20330051920090</v>
+      </c>
+      <c r="B116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C116" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116" t="s">
+        <v>145</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>20330051920090</v>
+      </c>
+      <c r="B117" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" t="s">
+        <v>112</v>
+      </c>
+      <c r="D117" t="s">
+        <v>145</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>20330051920090</v>
+      </c>
+      <c r="B118" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" t="s">
+        <v>145</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>20330051920090</v>
+      </c>
+      <c r="B119" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" t="s">
+        <v>145</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>20330051920090</v>
+      </c>
+      <c r="B120" t="s">
+        <v>81</v>
+      </c>
+      <c r="C120" t="s">
+        <v>112</v>
+      </c>
+      <c r="D120" t="s">
+        <v>145</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>20330051920090</v>
+      </c>
+      <c r="B121" t="s">
+        <v>81</v>
+      </c>
+      <c r="C121" t="s">
+        <v>112</v>
+      </c>
+      <c r="D121" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>20330051920091</v>
+      </c>
+      <c r="B122" t="s">
+        <v>82</v>
+      </c>
+      <c r="C122" t="s">
+        <v>113</v>
+      </c>
+      <c r="D122" t="s">
+        <v>140</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>20330051920091</v>
+      </c>
+      <c r="B123" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123" t="s">
+        <v>113</v>
+      </c>
+      <c r="D123" t="s">
+        <v>140</v>
+      </c>
+      <c r="E123" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>20330051920091</v>
+      </c>
+      <c r="B124" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124" t="s">
+        <v>113</v>
+      </c>
+      <c r="D124" t="s">
+        <v>140</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>20330051920091</v>
+      </c>
+      <c r="B125" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" t="s">
+        <v>113</v>
+      </c>
+      <c r="D125" t="s">
+        <v>140</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>20330051920091</v>
+      </c>
+      <c r="B126" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" t="s">
+        <v>113</v>
+      </c>
+      <c r="D126" t="s">
+        <v>140</v>
+      </c>
+      <c r="E126" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>20330051920091</v>
+      </c>
+      <c r="B127" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" t="s">
+        <v>113</v>
+      </c>
+      <c r="D127" t="s">
+        <v>140</v>
+      </c>
+      <c r="E127" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>20330051920092</v>
+      </c>
+      <c r="B128" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128" t="s">
+        <v>96</v>
+      </c>
+      <c r="D128" t="s">
+        <v>146</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>20330051920092</v>
+      </c>
+      <c r="B129" t="s">
+        <v>83</v>
+      </c>
+      <c r="C129" t="s">
+        <v>96</v>
+      </c>
+      <c r="D129" t="s">
+        <v>146</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>20330051920092</v>
+      </c>
+      <c r="B130" t="s">
+        <v>83</v>
+      </c>
+      <c r="C130" t="s">
+        <v>96</v>
+      </c>
+      <c r="D130" t="s">
+        <v>146</v>
+      </c>
+      <c r="E130" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>20330051920092</v>
+      </c>
+      <c r="B131" t="s">
+        <v>83</v>
+      </c>
+      <c r="C131" t="s">
+        <v>96</v>
+      </c>
+      <c r="D131" t="s">
+        <v>146</v>
+      </c>
+      <c r="E131" t="s">
+        <v>5</v>
+      </c>
+      <c r="F131" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>20330051920092</v>
+      </c>
+      <c r="B132" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" t="s">
+        <v>96</v>
+      </c>
+      <c r="D132" t="s">
+        <v>146</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>20330051920092</v>
+      </c>
+      <c r="B133" t="s">
+        <v>83</v>
+      </c>
+      <c r="C133" t="s">
+        <v>96</v>
+      </c>
+      <c r="D133" t="s">
+        <v>146</v>
+      </c>
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>20330051920093</v>
+      </c>
+      <c r="B134" t="s">
+        <v>84</v>
+      </c>
+      <c r="C134" t="s">
+        <v>114</v>
+      </c>
+      <c r="D134" t="s">
+        <v>147</v>
+      </c>
+      <c r="E134" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>20330051920093</v>
+      </c>
+      <c r="B135" t="s">
+        <v>84</v>
+      </c>
+      <c r="C135" t="s">
+        <v>114</v>
+      </c>
+      <c r="D135" t="s">
+        <v>147</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>20330051920093</v>
+      </c>
+      <c r="B136" t="s">
+        <v>84</v>
+      </c>
+      <c r="C136" t="s">
+        <v>114</v>
+      </c>
+      <c r="D136" t="s">
+        <v>147</v>
+      </c>
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>20330051920093</v>
+      </c>
+      <c r="B137" t="s">
+        <v>84</v>
+      </c>
+      <c r="C137" t="s">
+        <v>114</v>
+      </c>
+      <c r="D137" t="s">
+        <v>147</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>20330051920093</v>
+      </c>
+      <c r="B138" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D138" t="s">
+        <v>147</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>20330051920093</v>
+      </c>
+      <c r="B139" t="s">
+        <v>84</v>
+      </c>
+      <c r="C139" t="s">
+        <v>114</v>
+      </c>
+      <c r="D139" t="s">
+        <v>147</v>
+      </c>
+      <c r="E139" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>20330051920094</v>
+      </c>
+      <c r="B140" t="s">
+        <v>84</v>
+      </c>
+      <c r="C140" t="s">
+        <v>115</v>
+      </c>
+      <c r="D140" t="s">
+        <v>148</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>20330051920094</v>
+      </c>
+      <c r="B141" t="s">
+        <v>84</v>
+      </c>
+      <c r="C141" t="s">
+        <v>115</v>
+      </c>
+      <c r="D141" t="s">
+        <v>148</v>
+      </c>
+      <c r="E141" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>20330051920094</v>
+      </c>
+      <c r="B142" t="s">
+        <v>84</v>
+      </c>
+      <c r="C142" t="s">
+        <v>115</v>
+      </c>
+      <c r="D142" t="s">
+        <v>148</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>20330051920094</v>
+      </c>
+      <c r="B143" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143" t="s">
+        <v>115</v>
+      </c>
+      <c r="D143" t="s">
+        <v>148</v>
+      </c>
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>20330051920094</v>
+      </c>
+      <c r="B144" t="s">
+        <v>84</v>
+      </c>
+      <c r="C144" t="s">
+        <v>115</v>
+      </c>
+      <c r="D144" t="s">
+        <v>148</v>
+      </c>
+      <c r="E144" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>20330051920094</v>
+      </c>
+      <c r="B145" t="s">
+        <v>84</v>
+      </c>
+      <c r="C145" t="s">
+        <v>115</v>
+      </c>
+      <c r="D145" t="s">
+        <v>148</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>20330051920058</v>
+      </c>
+      <c r="B146" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" t="s">
+        <v>116</v>
+      </c>
+      <c r="D146" t="s">
+        <v>149</v>
+      </c>
+      <c r="E146" t="s">
+        <v>6</v>
+      </c>
+      <c r="F146" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>20330051920058</v>
+      </c>
+      <c r="B147" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" t="s">
+        <v>116</v>
+      </c>
+      <c r="D147" t="s">
+        <v>149</v>
+      </c>
+      <c r="E147" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>20330051920058</v>
+      </c>
+      <c r="B148" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" t="s">
+        <v>116</v>
+      </c>
+      <c r="D148" t="s">
+        <v>149</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>20330051920058</v>
+      </c>
+      <c r="B149" t="s">
+        <v>85</v>
+      </c>
+      <c r="C149" t="s">
+        <v>116</v>
+      </c>
+      <c r="D149" t="s">
+        <v>149</v>
+      </c>
+      <c r="E149" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>20330051920058</v>
+      </c>
+      <c r="B150" t="s">
+        <v>85</v>
+      </c>
+      <c r="C150" t="s">
+        <v>116</v>
+      </c>
+      <c r="D150" t="s">
+        <v>149</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>20330051920058</v>
+      </c>
+      <c r="B151" t="s">
+        <v>85</v>
+      </c>
+      <c r="C151" t="s">
+        <v>116</v>
+      </c>
+      <c r="D151" t="s">
+        <v>149</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>20330051920059</v>
+      </c>
+      <c r="B152" t="s">
+        <v>86</v>
+      </c>
+      <c r="C152" t="s">
+        <v>117</v>
+      </c>
+      <c r="D152" t="s">
+        <v>150</v>
+      </c>
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+      <c r="F152" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>20330051920059</v>
+      </c>
+      <c r="B153" t="s">
+        <v>86</v>
+      </c>
+      <c r="C153" t="s">
+        <v>117</v>
+      </c>
+      <c r="D153" t="s">
+        <v>150</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>20330051920059</v>
+      </c>
+      <c r="B154" t="s">
+        <v>86</v>
+      </c>
+      <c r="C154" t="s">
+        <v>117</v>
+      </c>
+      <c r="D154" t="s">
+        <v>150</v>
+      </c>
+      <c r="E154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>20330051920059</v>
+      </c>
+      <c r="B155" t="s">
+        <v>86</v>
+      </c>
+      <c r="C155" t="s">
+        <v>117</v>
+      </c>
+      <c r="D155" t="s">
+        <v>150</v>
+      </c>
+      <c r="E155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>20330051920059</v>
+      </c>
+      <c r="B156" t="s">
+        <v>86</v>
+      </c>
+      <c r="C156" t="s">
+        <v>117</v>
+      </c>
+      <c r="D156" t="s">
+        <v>150</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>20330051920059</v>
+      </c>
+      <c r="B157" t="s">
+        <v>86</v>
+      </c>
+      <c r="C157" t="s">
+        <v>117</v>
+      </c>
+      <c r="D157" t="s">
+        <v>150</v>
+      </c>
+      <c r="E157" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>20330051920061</v>
+      </c>
+      <c r="B158" t="s">
+        <v>87</v>
+      </c>
+      <c r="C158" t="s">
+        <v>118</v>
+      </c>
+      <c r="D158" t="s">
+        <v>151</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>20330051920061</v>
+      </c>
+      <c r="B159" t="s">
+        <v>87</v>
+      </c>
+      <c r="C159" t="s">
+        <v>118</v>
+      </c>
+      <c r="D159" t="s">
+        <v>151</v>
+      </c>
+      <c r="E159" t="s">
+        <v>4</v>
+      </c>
+      <c r="F159" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>20330051920061</v>
+      </c>
+      <c r="B160" t="s">
+        <v>87</v>
+      </c>
+      <c r="C160" t="s">
+        <v>118</v>
+      </c>
+      <c r="D160" t="s">
+        <v>151</v>
+      </c>
+      <c r="E160" t="s">
+        <v>5</v>
+      </c>
+      <c r="F160" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>20330051920061</v>
+      </c>
+      <c r="B161" t="s">
+        <v>87</v>
+      </c>
+      <c r="C161" t="s">
+        <v>118</v>
+      </c>
+      <c r="D161" t="s">
+        <v>151</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>20330051920061</v>
+      </c>
+      <c r="B162" t="s">
+        <v>87</v>
+      </c>
+      <c r="C162" t="s">
+        <v>118</v>
+      </c>
+      <c r="D162" t="s">
+        <v>151</v>
+      </c>
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>20330051920061</v>
+      </c>
+      <c r="B163" t="s">
+        <v>87</v>
+      </c>
+      <c r="C163" t="s">
+        <v>118</v>
+      </c>
+      <c r="D163" t="s">
+        <v>151</v>
+      </c>
+      <c r="E163" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>20330051920062</v>
+      </c>
+      <c r="B164" t="s">
+        <v>88</v>
+      </c>
+      <c r="C164" t="s">
+        <v>86</v>
+      </c>
+      <c r="D164" t="s">
+        <v>152</v>
+      </c>
+      <c r="E164" t="s">
+        <v>5</v>
+      </c>
+      <c r="F164" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>20330051920062</v>
+      </c>
+      <c r="B165" t="s">
+        <v>88</v>
+      </c>
+      <c r="C165" t="s">
+        <v>86</v>
+      </c>
+      <c r="D165" t="s">
+        <v>152</v>
+      </c>
+      <c r="E165" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>20330051920062</v>
+      </c>
+      <c r="B166" t="s">
+        <v>88</v>
+      </c>
+      <c r="C166" t="s">
+        <v>86</v>
+      </c>
+      <c r="D166" t="s">
+        <v>152</v>
+      </c>
+      <c r="E166" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>20330051920062</v>
+      </c>
+      <c r="B167" t="s">
+        <v>88</v>
+      </c>
+      <c r="C167" t="s">
+        <v>86</v>
+      </c>
+      <c r="D167" t="s">
+        <v>152</v>
+      </c>
+      <c r="E167" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>20330051920062</v>
+      </c>
+      <c r="B168" t="s">
+        <v>88</v>
+      </c>
+      <c r="C168" t="s">
+        <v>86</v>
+      </c>
+      <c r="D168" t="s">
+        <v>152</v>
+      </c>
+      <c r="E168" t="s">
+        <v>6</v>
+      </c>
+      <c r="F168" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>20330051920062</v>
+      </c>
+      <c r="B169" t="s">
+        <v>88</v>
+      </c>
+      <c r="C169" t="s">
+        <v>86</v>
+      </c>
+      <c r="D169" t="s">
+        <v>152</v>
+      </c>
+      <c r="E169" t="s">
+        <v>8</v>
+      </c>
+      <c r="F169" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>20330051920063</v>
+      </c>
+      <c r="B170" t="s">
+        <v>89</v>
+      </c>
+      <c r="C170" t="s">
+        <v>119</v>
+      </c>
+      <c r="D170" t="s">
+        <v>153</v>
+      </c>
+      <c r="E170" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>20330051920063</v>
+      </c>
+      <c r="B171" t="s">
+        <v>89</v>
+      </c>
+      <c r="C171" t="s">
+        <v>119</v>
+      </c>
+      <c r="D171" t="s">
+        <v>153</v>
+      </c>
+      <c r="E171" t="s">
+        <v>5</v>
+      </c>
+      <c r="F171" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>20330051920063</v>
+      </c>
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
+      <c r="C172" t="s">
+        <v>119</v>
+      </c>
+      <c r="D172" t="s">
+        <v>153</v>
+      </c>
+      <c r="E172" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>20330051920063</v>
+      </c>
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
+      <c r="C173" t="s">
+        <v>119</v>
+      </c>
+      <c r="D173" t="s">
+        <v>153</v>
+      </c>
+      <c r="E173" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>20330051920063</v>
+      </c>
+      <c r="B174" t="s">
+        <v>89</v>
+      </c>
+      <c r="C174" t="s">
+        <v>119</v>
+      </c>
+      <c r="D174" t="s">
+        <v>153</v>
+      </c>
+      <c r="E174" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>20330051920063</v>
+      </c>
+      <c r="B175" t="s">
+        <v>89</v>
+      </c>
+      <c r="C175" t="s">
+        <v>119</v>
+      </c>
+      <c r="D175" t="s">
+        <v>153</v>
+      </c>
+      <c r="E175" t="s">
+        <v>4</v>
+      </c>
+      <c r="F175" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>20330051920064</v>
+      </c>
+      <c r="B176" t="s">
+        <v>90</v>
+      </c>
+      <c r="C176" t="s">
+        <v>120</v>
+      </c>
+      <c r="D176" t="s">
+        <v>154</v>
+      </c>
+      <c r="E176" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>20330051920064</v>
+      </c>
+      <c r="B177" t="s">
+        <v>90</v>
+      </c>
+      <c r="C177" t="s">
+        <v>120</v>
+      </c>
+      <c r="D177" t="s">
+        <v>154</v>
+      </c>
+      <c r="E177" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>20330051920064</v>
+      </c>
+      <c r="B178" t="s">
+        <v>90</v>
+      </c>
+      <c r="C178" t="s">
+        <v>120</v>
+      </c>
+      <c r="D178" t="s">
+        <v>154</v>
+      </c>
+      <c r="E178" t="s">
+        <v>4</v>
+      </c>
+      <c r="F178" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>20330051920064</v>
+      </c>
+      <c r="B179" t="s">
+        <v>90</v>
+      </c>
+      <c r="C179" t="s">
+        <v>120</v>
+      </c>
+      <c r="D179" t="s">
+        <v>154</v>
+      </c>
+      <c r="E179" t="s">
+        <v>6</v>
+      </c>
+      <c r="F179" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>20330051920064</v>
+      </c>
+      <c r="B180" t="s">
+        <v>90</v>
+      </c>
+      <c r="C180" t="s">
+        <v>120</v>
+      </c>
+      <c r="D180" t="s">
+        <v>154</v>
+      </c>
+      <c r="E180" t="s">
+        <v>5</v>
+      </c>
+      <c r="F180" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>20330051920064</v>
+      </c>
+      <c r="B181" t="s">
+        <v>90</v>
+      </c>
+      <c r="C181" t="s">
+        <v>120</v>
+      </c>
+      <c r="D181" t="s">
+        <v>154</v>
+      </c>
+      <c r="E181" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>20330051920065</v>
+      </c>
+      <c r="B182" t="s">
+        <v>91</v>
+      </c>
+      <c r="C182" t="s">
+        <v>121</v>
+      </c>
+      <c r="D182" t="s">
+        <v>155</v>
+      </c>
+      <c r="E182" t="s">
+        <v>5</v>
+      </c>
+      <c r="F182" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>20330051920065</v>
+      </c>
+      <c r="B183" t="s">
+        <v>91</v>
+      </c>
+      <c r="C183" t="s">
+        <v>121</v>
+      </c>
+      <c r="D183" t="s">
+        <v>155</v>
+      </c>
+      <c r="E183" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>20330051920065</v>
+      </c>
+      <c r="B184" t="s">
+        <v>91</v>
+      </c>
+      <c r="C184" t="s">
+        <v>121</v>
+      </c>
+      <c r="D184" t="s">
+        <v>155</v>
+      </c>
+      <c r="E184" t="s">
+        <v>4</v>
+      </c>
+      <c r="F184" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>20330051920065</v>
+      </c>
+      <c r="B185" t="s">
+        <v>91</v>
+      </c>
+      <c r="C185" t="s">
+        <v>121</v>
+      </c>
+      <c r="D185" t="s">
+        <v>155</v>
+      </c>
+      <c r="E185" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>20330051920065</v>
+      </c>
+      <c r="B186" t="s">
+        <v>91</v>
+      </c>
+      <c r="C186" t="s">
+        <v>121</v>
+      </c>
+      <c r="D186" t="s">
+        <v>155</v>
+      </c>
+      <c r="E186" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>20330051920065</v>
+      </c>
+      <c r="B187" t="s">
+        <v>91</v>
+      </c>
+      <c r="C187" t="s">
+        <v>121</v>
+      </c>
+      <c r="D187" t="s">
+        <v>155</v>
+      </c>
+      <c r="E187" t="s">
+        <v>6</v>
+      </c>
+      <c r="F187" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>20330051920066</v>
+      </c>
+      <c r="B188" t="s">
+        <v>92</v>
+      </c>
+      <c r="C188" t="s">
+        <v>122</v>
+      </c>
+      <c r="D188" t="s">
+        <v>156</v>
+      </c>
+      <c r="E188" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>20330051920066</v>
+      </c>
+      <c r="B189" t="s">
+        <v>92</v>
+      </c>
+      <c r="C189" t="s">
+        <v>122</v>
+      </c>
+      <c r="D189" t="s">
+        <v>156</v>
+      </c>
+      <c r="E189" t="s">
+        <v>4</v>
+      </c>
+      <c r="F189" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>20330051920066</v>
+      </c>
+      <c r="B190" t="s">
+        <v>92</v>
+      </c>
+      <c r="C190" t="s">
+        <v>122</v>
+      </c>
+      <c r="D190" t="s">
+        <v>156</v>
+      </c>
+      <c r="E190" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>20330051920066</v>
+      </c>
+      <c r="B191" t="s">
+        <v>92</v>
+      </c>
+      <c r="C191" t="s">
+        <v>122</v>
+      </c>
+      <c r="D191" t="s">
+        <v>156</v>
+      </c>
+      <c r="E191" t="s">
+        <v>6</v>
+      </c>
+      <c r="F191" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>20330051920066</v>
+      </c>
+      <c r="B192" t="s">
+        <v>92</v>
+      </c>
+      <c r="C192" t="s">
+        <v>122</v>
+      </c>
+      <c r="D192" t="s">
+        <v>156</v>
+      </c>
+      <c r="E192" t="s">
+        <v>5</v>
+      </c>
+      <c r="F192" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>20330051920066</v>
+      </c>
+      <c r="B193" t="s">
+        <v>92</v>
+      </c>
+      <c r="C193" t="s">
+        <v>122</v>
+      </c>
+      <c r="D193" t="s">
+        <v>156</v>
+      </c>
+      <c r="E193" t="s">
+        <v>8</v>
+      </c>
+      <c r="F193" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>20330051920068</v>
+      </c>
+      <c r="B194" t="s">
+        <v>93</v>
+      </c>
+      <c r="C194" t="s">
+        <v>75</v>
+      </c>
+      <c r="D194" t="s">
+        <v>157</v>
+      </c>
+      <c r="E194" t="s">
+        <v>7</v>
+      </c>
+      <c r="F194" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>20330051920068</v>
+      </c>
+      <c r="B195" t="s">
+        <v>93</v>
+      </c>
+      <c r="C195" t="s">
+        <v>75</v>
+      </c>
+      <c r="D195" t="s">
+        <v>157</v>
+      </c>
+      <c r="E195" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>20330051920068</v>
+      </c>
+      <c r="B196" t="s">
+        <v>93</v>
+      </c>
+      <c r="C196" t="s">
+        <v>75</v>
+      </c>
+      <c r="D196" t="s">
+        <v>157</v>
+      </c>
+      <c r="E196" t="s">
+        <v>4</v>
+      </c>
+      <c r="F196" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>20330051920068</v>
+      </c>
+      <c r="B197" t="s">
+        <v>93</v>
+      </c>
+      <c r="C197" t="s">
+        <v>75</v>
+      </c>
+      <c r="D197" t="s">
+        <v>157</v>
+      </c>
+      <c r="E197" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>20330051920068</v>
+      </c>
+      <c r="B198" t="s">
+        <v>93</v>
+      </c>
+      <c r="C198" t="s">
+        <v>75</v>
+      </c>
+      <c r="D198" t="s">
+        <v>157</v>
+      </c>
+      <c r="E198" t="s">
+        <v>6</v>
+      </c>
+      <c r="F198" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>20330051920068</v>
+      </c>
+      <c r="B199" t="s">
+        <v>93</v>
+      </c>
+      <c r="C199" t="s">
+        <v>75</v>
+      </c>
+      <c r="D199" t="s">
+        <v>157</v>
+      </c>
+      <c r="E199" t="s">
+        <v>5</v>
+      </c>
+      <c r="F199" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>20330051920070</v>
+      </c>
+      <c r="B200" t="s">
+        <v>93</v>
+      </c>
+      <c r="C200" t="s">
+        <v>123</v>
+      </c>
+      <c r="D200" t="s">
+        <v>158</v>
+      </c>
+      <c r="E200" t="s">
+        <v>4</v>
+      </c>
+      <c r="F200" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>20330051920070</v>
+      </c>
+      <c r="B201" t="s">
+        <v>93</v>
+      </c>
+      <c r="C201" t="s">
+        <v>123</v>
+      </c>
+      <c r="D201" t="s">
+        <v>158</v>
+      </c>
+      <c r="E201" t="s">
+        <v>5</v>
+      </c>
+      <c r="F201" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>20330051920070</v>
+      </c>
+      <c r="B202" t="s">
+        <v>93</v>
+      </c>
+      <c r="C202" t="s">
+        <v>123</v>
+      </c>
+      <c r="D202" t="s">
+        <v>158</v>
+      </c>
+      <c r="E202" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>20330051920070</v>
+      </c>
+      <c r="B203" t="s">
+        <v>93</v>
+      </c>
+      <c r="C203" t="s">
+        <v>123</v>
+      </c>
+      <c r="D203" t="s">
+        <v>158</v>
+      </c>
+      <c r="E203" t="s">
+        <v>6</v>
+      </c>
+      <c r="F203" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>20330051920070</v>
+      </c>
+      <c r="B204" t="s">
+        <v>93</v>
+      </c>
+      <c r="C204" t="s">
+        <v>123</v>
+      </c>
+      <c r="D204" t="s">
+        <v>158</v>
+      </c>
+      <c r="E204" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>20330051920070</v>
+      </c>
+      <c r="B205" t="s">
+        <v>93</v>
+      </c>
+      <c r="C205" t="s">
+        <v>123</v>
+      </c>
+      <c r="D205" t="s">
+        <v>158</v>
+      </c>
+      <c r="E205" t="s">
+        <v>8</v>
+      </c>
+      <c r="F205" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>20330051920069</v>
+      </c>
+      <c r="B206" t="s">
+        <v>94</v>
+      </c>
+      <c r="C206" t="s">
+        <v>124</v>
+      </c>
+      <c r="D206" t="s">
+        <v>159</v>
+      </c>
+      <c r="E206" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>20330051920069</v>
+      </c>
+      <c r="B207" t="s">
+        <v>94</v>
+      </c>
+      <c r="C207" t="s">
+        <v>124</v>
+      </c>
+      <c r="D207" t="s">
+        <v>159</v>
+      </c>
+      <c r="E207" t="s">
+        <v>7</v>
+      </c>
+      <c r="F207" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>20330051920069</v>
+      </c>
+      <c r="B208" t="s">
+        <v>94</v>
+      </c>
+      <c r="C208" t="s">
+        <v>124</v>
+      </c>
+      <c r="D208" t="s">
+        <v>159</v>
+      </c>
+      <c r="E208" t="s">
+        <v>8</v>
+      </c>
+      <c r="F208" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>20330051920069</v>
+      </c>
+      <c r="B209" t="s">
+        <v>94</v>
+      </c>
+      <c r="C209" t="s">
+        <v>124</v>
+      </c>
+      <c r="D209" t="s">
+        <v>159</v>
+      </c>
+      <c r="E209" t="s">
+        <v>5</v>
+      </c>
+      <c r="F209" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <v>20330051920069</v>
+      </c>
+      <c r="B210" t="s">
+        <v>94</v>
+      </c>
+      <c r="C210" t="s">
+        <v>124</v>
+      </c>
+      <c r="D210" t="s">
+        <v>159</v>
+      </c>
+      <c r="E210" t="s">
+        <v>4</v>
+      </c>
+      <c r="F210" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <v>20330051920069</v>
+      </c>
+      <c r="B211" t="s">
+        <v>94</v>
+      </c>
+      <c r="C211" t="s">
+        <v>124</v>
+      </c>
+      <c r="D211" t="s">
+        <v>159</v>
+      </c>
+      <c r="E211" t="s">
+        <v>6</v>
+      </c>
+      <c r="F211" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
         <v>20330051920386</v>
       </c>
-      <c r="B116" t="s">
-        <v>90</v>
-      </c>
-      <c r="C116" t="s">
-        <v>118</v>
-      </c>
-      <c r="D116" t="s">
-        <v>149</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="B212" t="s">
+        <v>95</v>
+      </c>
+      <c r="C212" t="s">
+        <v>125</v>
+      </c>
+      <c r="D212" t="s">
+        <v>160</v>
+      </c>
+      <c r="E212" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <v>20330051920386</v>
+      </c>
+      <c r="B213" t="s">
+        <v>95</v>
+      </c>
+      <c r="C213" t="s">
+        <v>125</v>
+      </c>
+      <c r="D213" t="s">
+        <v>160</v>
+      </c>
+      <c r="E213" t="s">
+        <v>4</v>
+      </c>
+      <c r="F213" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <v>20330051920386</v>
+      </c>
+      <c r="B214" t="s">
+        <v>95</v>
+      </c>
+      <c r="C214" t="s">
+        <v>125</v>
+      </c>
+      <c r="D214" t="s">
+        <v>160</v>
+      </c>
+      <c r="E214" t="s">
         <v>6</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F214" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215">
+        <v>20330051920386</v>
+      </c>
+      <c r="B215" t="s">
+        <v>95</v>
+      </c>
+      <c r="C215" t="s">
+        <v>125</v>
+      </c>
+      <c r="D215" t="s">
+        <v>160</v>
+      </c>
+      <c r="E215" t="s">
+        <v>7</v>
+      </c>
+      <c r="F215" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216">
+        <v>20330051920386</v>
+      </c>
+      <c r="B216" t="s">
+        <v>95</v>
+      </c>
+      <c r="C216" t="s">
+        <v>125</v>
+      </c>
+      <c r="D216" t="s">
+        <v>160</v>
+      </c>
+      <c r="E216" t="s">
+        <v>5</v>
+      </c>
+      <c r="F216" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217">
+        <v>20330051920386</v>
+      </c>
+      <c r="B217" t="s">
+        <v>95</v>
+      </c>
+      <c r="C217" t="s">
+        <v>125</v>
+      </c>
+      <c r="D217" t="s">
+        <v>160</v>
+      </c>
+      <c r="E217" t="s">
+        <v>8</v>
+      </c>
+      <c r="F217" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5703,13 +7723,13 @@
         <v>20330051920076</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -5720,13 +7740,13 @@
         <v>20330051920083</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -5737,13 +7757,13 @@
         <v>20330051920085</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -5754,13 +7774,13 @@
         <v>20330051920094</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -5771,13 +7791,13 @@
         <v>20330051920074</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -5788,13 +7808,13 @@
         <v>20330051920080</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -5805,13 +7825,13 @@
         <v>20330051920082</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -5822,13 +7842,13 @@
         <v>20330051920089</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -5839,13 +7859,13 @@
         <v>20330051920092</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -5856,13 +7876,13 @@
         <v>20330051920063</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -5873,13 +7893,13 @@
         <v>20330051920070</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -5890,13 +7910,13 @@
         <v>20330051920071</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -5907,13 +7927,13 @@
         <v>20330051920073</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -5924,13 +7944,13 @@
         <v>20330051920077</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -5941,13 +7961,13 @@
         <v>20330051920078</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -5958,13 +7978,13 @@
         <v>20330051920081</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -5975,13 +7995,13 @@
         <v>20330051920084</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -5992,13 +8012,13 @@
         <v>20330051920069</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -6009,13 +8029,13 @@
         <v>20330051920386</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -6026,13 +8046,13 @@
         <v>20330051920072</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -6043,13 +8063,13 @@
         <v>20330051920087</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -6060,13 +8080,13 @@
         <v>20330051920090</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -6077,13 +8097,13 @@
         <v>20330051920059</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -6094,13 +8114,13 @@
         <v>20330051920065</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -6111,13 +8131,13 @@
         <v>20330051920093</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -6128,13 +8148,13 @@
         <v>20330051920066</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -6145,13 +8165,13 @@
         <v>20330051920359</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -6162,13 +8182,13 @@
         <v>20330051920058</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -6179,13 +8199,13 @@
         <v>20330051920061</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -6196,13 +8216,13 @@
         <v>20330051920064</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -6213,13 +8233,13 @@
         <v>20330051920068</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -6230,13 +8250,13 @@
         <v>20330051920041</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -6247,13 +8267,13 @@
         <v>20330051920075</v>
       </c>
       <c r="B34" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -6264,13 +8284,13 @@
         <v>20330051920088</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -6281,13 +8301,13 @@
         <v>20330051920091</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -6298,13 +8318,13 @@
         <v>20330051920062</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -6317,7 +8337,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6350,213 +8370,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920093</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920093</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920066</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920066</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920359</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920058</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920061</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920064</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920068</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/2AEV - Estadisticos 2020.xlsx
+++ b/grupos/2AEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="161">
   <si>
     <t>Materia</t>
   </si>
@@ -188,22 +188,22 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Silva Villegas Mario</t>
+  </si>
+  <si>
+    <t>Medina Tolentino Francisco</t>
+  </si>
+  <si>
+    <t>Zarate Amezcua Eladio Jorge</t>
+  </si>
+  <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
+    <t>Contreras Díaz Irma Ivette</t>
+  </si>
+  <si>
     <t>Villanueva Morales Luis Arturo</t>
-  </si>
-  <si>
-    <t>Silva Villegas Mario</t>
-  </si>
-  <si>
-    <t>Zarate Amezcua Eladio Jorge</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
-    <t>Medina Tolentino Francisco</t>
-  </si>
-  <si>
-    <t>Contreras Díaz Irma Ivette</t>
   </si>
   <si>
     <t>NC</t>
@@ -984,16 +984,16 @@
         <v>-1</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K4">
         <v>-1</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>-1</v>
@@ -1037,7 +1037,7 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -1052,7 +1052,7 @@
         <v>-1</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M5">
         <v>-1</v>
@@ -1084,7 +1084,7 @@
         <v>-1</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -1096,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1105,13 +1105,13 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K6">
         <v>-1</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M6">
         <v>-1</v>
@@ -1146,7 +1146,7 @@
         <v>-1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>9</v>
@@ -1155,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1164,13 +1164,13 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <v>-1</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>-1</v>
@@ -1214,22 +1214,22 @@
         <v>8</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>-1</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K8">
         <v>-1</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M8">
         <v>-1</v>
@@ -1264,7 +1264,7 @@
         <v>-1</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -1273,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1282,13 +1282,13 @@
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K9">
         <v>-1</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>-1</v>
@@ -1338,19 +1338,19 @@
         <v>-1</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K10">
         <v>-1</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1388,10 +1388,10 @@
         <v>-1</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1406,7 +1406,7 @@
         <v>-1</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <v>-1</v>
@@ -1438,10 +1438,10 @@
         <v>-1</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -1450,22 +1450,22 @@
         <v>5</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>-1</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K12">
         <v>-1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>-1</v>
@@ -1509,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1524,7 +1524,7 @@
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M13">
         <v>-1</v>
@@ -1556,16 +1556,16 @@
         <v>-1</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>-1</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>7</v>
@@ -1574,16 +1574,16 @@
         <v>-1</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K14">
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M14">
         <v>-1</v>
@@ -1618,7 +1618,7 @@
         <v>-1</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>-1</v>
@@ -1636,13 +1636,13 @@
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K15">
         <v>-1</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M15">
         <v>-1</v>
@@ -1677,7 +1677,7 @@
         <v>-1</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>-1</v>
@@ -1686,7 +1686,7 @@
         <v>5</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1695,13 +1695,13 @@
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <v>-1</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M16">
         <v>-1</v>
@@ -1742,10 +1742,10 @@
         <v>-1</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -1760,7 +1760,7 @@
         <v>-1</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M17">
         <v>-1</v>
@@ -1795,7 +1795,7 @@
         <v>-1</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>-1</v>
@@ -1813,13 +1813,13 @@
         <v>-1</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K18">
         <v>-1</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M18">
         <v>-1</v>
@@ -1860,10 +1860,10 @@
         <v>-1</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -1878,7 +1878,7 @@
         <v>-1</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M19">
         <v>-1</v>
@@ -1913,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -1922,7 +1922,7 @@
         <v>9</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -1931,13 +1931,13 @@
         <v>-1</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K20">
         <v>-1</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M20">
         <v>-1</v>
@@ -1987,19 +1987,19 @@
         <v>-1</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2028,10 +2028,10 @@
         <v>-1</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -2040,7 +2040,7 @@
         <v>6</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -2049,13 +2049,13 @@
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K22">
         <v>-1</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M22">
         <v>-1</v>
@@ -2090,7 +2090,7 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -2099,7 +2099,7 @@
         <v>6</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>-1</v>
@@ -2108,13 +2108,13 @@
         <v>-1</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K23">
         <v>-1</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M23">
         <v>-1</v>
@@ -2146,10 +2146,10 @@
         <v>-1</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -2158,22 +2158,22 @@
         <v>5</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>-1</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K24">
         <v>-1</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M24">
         <v>-1</v>
@@ -2223,16 +2223,16 @@
         <v>-1</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K25">
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M25">
         <v>-1</v>
@@ -2264,10 +2264,10 @@
         <v>-1</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>-1</v>
@@ -2276,7 +2276,7 @@
         <v>5</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -2285,13 +2285,13 @@
         <v>-1</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K26">
         <v>-1</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <v>-1</v>
@@ -2323,10 +2323,10 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -2341,16 +2341,16 @@
         <v>-1</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K27">
         <v>-1</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M27">
         <v>-1</v>
@@ -2385,16 +2385,16 @@
         <v>-1</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>-1</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2403,13 +2403,13 @@
         <v>-1</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K28">
         <v>-1</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M28">
         <v>-1</v>
@@ -2444,7 +2444,7 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>9</v>
@@ -2459,19 +2459,19 @@
         <v>-1</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2500,7 +2500,7 @@
         <v>-1</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -2521,13 +2521,13 @@
         <v>-1</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K30">
         <v>-1</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M30">
         <v>-1</v>
@@ -2577,19 +2577,19 @@
         <v>-1</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J31">
         <v>-1</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2621,7 +2621,7 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -2636,19 +2636,19 @@
         <v>-1</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N32">
         <v>-1</v>
@@ -2695,19 +2695,19 @@
         <v>-1</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K33">
         <v>-1</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -2739,7 +2739,7 @@
         <v>-1</v>
       </c>
       <c r="D34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>-1</v>
@@ -2748,7 +2748,7 @@
         <v>5</v>
       </c>
       <c r="G34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H34">
         <v>-1</v>
@@ -2757,13 +2757,13 @@
         <v>-1</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K34">
         <v>-1</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M34">
         <v>-1</v>
@@ -2807,7 +2807,7 @@
         <v>5</v>
       </c>
       <c r="G35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H35">
         <v>-1</v>
@@ -2816,13 +2816,13 @@
         <v>-1</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K35">
         <v>-1</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M35">
         <v>-1</v>
@@ -2857,7 +2857,7 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>9</v>
@@ -2866,25 +2866,25 @@
         <v>6</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H36">
         <v>-1</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N36">
         <v>-1</v>
@@ -2916,7 +2916,7 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -2931,16 +2931,16 @@
         <v>-1</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K37">
         <v>-1</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M37">
         <v>-1</v>
@@ -2975,7 +2975,7 @@
         <v>-1</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -2984,7 +2984,7 @@
         <v>5</v>
       </c>
       <c r="G38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H38">
         <v>-1</v>
@@ -2993,13 +2993,13 @@
         <v>-1</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K38">
         <v>-1</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M38">
         <v>-1</v>
@@ -3031,10 +3031,10 @@
         <v>-1</v>
       </c>
       <c r="C39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -3043,22 +3043,22 @@
         <v>5</v>
       </c>
       <c r="G39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H39">
         <v>-1</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K39">
         <v>-1</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M39">
         <v>-1</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -3146,30 +3146,27 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>7.7</v>
+        <v>36.11</v>
       </c>
       <c r="I2">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J2">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -3178,25 +3175,25 @@
         <v>36</v>
       </c>
       <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
+        <v>13.89</v>
+      </c>
+      <c r="G3">
         <v>36.11</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="I3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J3">
-        <v>63.89</v>
+        <v>86.11</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3210,25 +3207,25 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>38.89</v>
+        <v>19.44</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>80.56</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J4">
-        <v>61.11</v>
+        <v>80.56</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3242,19 +3239,19 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>44.44</v>
+        <v>36.11</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="H5">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="I5">
         <v>20</v>
@@ -3265,7 +3262,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -3274,30 +3271,30 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>38.89</v>
+      </c>
+      <c r="G6">
+        <v>61.11</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="G6">
+      <c r="J6">
         <v>0</v>
-      </c>
-      <c r="H6">
-        <v>7.9</v>
-      </c>
-      <c r="I6">
-        <v>18</v>
-      </c>
-      <c r="J6">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -3306,25 +3303,25 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>52.78</v>
+        <v>83.33</v>
       </c>
       <c r="G7">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>13.89</v>
+        <v>16.67</v>
       </c>
     </row>
   </sheetData>
@@ -3334,7 +3331,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3378,10 +3375,10 @@
         <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3398,10 +3395,10 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3418,27 +3415,27 @@
         <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920041</v>
+        <v>20330051920071</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -3446,42 +3443,42 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920041</v>
+        <v>20330051920071</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920041</v>
+        <v>20330051920071</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3501,7 +3498,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3518,187 +3515,187 @@
         <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920071</v>
+        <v>20330051920072</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920071</v>
+        <v>20330051920072</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920071</v>
+        <v>20330051920072</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920071</v>
+        <v>20330051920072</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920072</v>
+        <v>20330051920073</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920072</v>
+        <v>20330051920073</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920072</v>
+        <v>20330051920073</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920072</v>
+        <v>20330051920073</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920072</v>
+        <v>20330051920359</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>56</v>
@@ -3706,59 +3703,59 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920072</v>
+        <v>20330051920359</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920073</v>
+        <v>20330051920359</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920073</v>
+        <v>20330051920074</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
         <v>57</v>
@@ -3766,79 +3763,79 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920073</v>
+        <v>20330051920074</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920073</v>
+        <v>20330051920074</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920073</v>
+        <v>20330051920074</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920073</v>
+        <v>20330051920075</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>56</v>
@@ -3846,139 +3843,139 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920359</v>
+        <v>20330051920075</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920359</v>
+        <v>20330051920076</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920359</v>
+        <v>20330051920076</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920359</v>
+        <v>20330051920076</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920359</v>
+        <v>20330051920076</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920359</v>
+        <v>20330051920076</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920074</v>
+        <v>20330051920077</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
         <v>57</v>
@@ -3986,236 +3983,236 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920074</v>
+        <v>20330051920077</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920074</v>
+        <v>20330051920077</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920074</v>
+        <v>20330051920078</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920074</v>
+        <v>20330051920078</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920074</v>
+        <v>20330051920078</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920075</v>
+        <v>20330051920078</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920075</v>
+        <v>20330051920078</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920075</v>
+        <v>20330051920080</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920075</v>
+        <v>20330051920080</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920075</v>
+        <v>20330051920080</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920075</v>
+        <v>20330051920081</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920076</v>
+        <v>20330051920081</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -4226,119 +4223,119 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920076</v>
+        <v>20330051920081</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920076</v>
+        <v>20330051920081</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920076</v>
+        <v>20330051920082</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920076</v>
+        <v>20330051920082</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920076</v>
+        <v>20330051920082</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920077</v>
+        <v>20330051920082</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
         <v>57</v>
@@ -4346,419 +4343,419 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920077</v>
+        <v>20330051920083</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920077</v>
+        <v>20330051920083</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920077</v>
+        <v>20330051920083</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920077</v>
+        <v>20330051920083</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920077</v>
+        <v>20330051920083</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920078</v>
+        <v>20330051920084</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920078</v>
+        <v>20330051920084</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920078</v>
+        <v>20330051920084</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20330051920078</v>
+        <v>20330051920084</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20330051920078</v>
+        <v>20330051920085</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20330051920078</v>
+        <v>20330051920085</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20330051920080</v>
+        <v>20330051920085</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20330051920080</v>
+        <v>20330051920085</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>20330051920080</v>
+        <v>20330051920085</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20330051920080</v>
+        <v>20330051920087</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>20330051920080</v>
+        <v>20330051920087</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D66" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>20330051920080</v>
+        <v>20330051920087</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>20330051920081</v>
+        <v>20330051920087</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>20330051920081</v>
+        <v>20330051920088</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D69" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>20330051920081</v>
+        <v>20330051920089</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>20330051920081</v>
+        <v>20330051920089</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E71" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
         <v>57</v>
@@ -4766,16 +4763,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>20330051920081</v>
+        <v>20330051920089</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
@@ -4786,319 +4783,319 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>20330051920081</v>
+        <v>20330051920089</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D73" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>20330051920082</v>
+        <v>20330051920090</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D74" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>20330051920082</v>
+        <v>20330051920090</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D75" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>20330051920082</v>
+        <v>20330051920090</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D76" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>20330051920082</v>
+        <v>20330051920090</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>20330051920082</v>
+        <v>20330051920091</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D78" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>20330051920082</v>
+        <v>20330051920091</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>20330051920083</v>
+        <v>20330051920091</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="D80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>20330051920083</v>
+        <v>20330051920092</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E81" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>20330051920083</v>
+        <v>20330051920092</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D82" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>20330051920083</v>
+        <v>20330051920092</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>20330051920083</v>
+        <v>20330051920092</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D84" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>20330051920083</v>
+        <v>20330051920093</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D85" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E85" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>20330051920084</v>
+        <v>20330051920093</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D86" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>20330051920084</v>
+        <v>20330051920093</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D87" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>20330051920084</v>
+        <v>20330051920094</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D88" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>56</v>
@@ -5106,56 +5103,56 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>20330051920084</v>
+        <v>20330051920094</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E89" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>20330051920084</v>
+        <v>20330051920094</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C90" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D90" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>20330051920084</v>
+        <v>20330051920094</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D91" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E91" t="s">
         <v>5</v>
@@ -5166,119 +5163,119 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>20330051920085</v>
+        <v>20330051920058</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C92" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D92" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>20330051920085</v>
+        <v>20330051920059</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D93" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>20330051920085</v>
+        <v>20330051920059</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>20330051920085</v>
+        <v>20330051920059</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D95" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>20330051920085</v>
+        <v>20330051920059</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D96" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>20330051920085</v>
+        <v>20330051920061</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C97" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D97" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>56</v>
@@ -5286,259 +5283,259 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>20330051920087</v>
+        <v>20330051920061</v>
       </c>
       <c r="B98" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C98" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D98" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F98" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>20330051920087</v>
+        <v>20330051920062</v>
       </c>
       <c r="B99" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D99" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>20330051920087</v>
+        <v>20330051920062</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D100" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>20330051920087</v>
+        <v>20330051920063</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C101" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D101" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>20330051920087</v>
+        <v>20330051920063</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C102" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D102" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E102" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>20330051920087</v>
+        <v>20330051920063</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C103" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D103" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E103" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>20330051920088</v>
+        <v>20330051920063</v>
       </c>
       <c r="B104" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C104" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D104" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>20330051920088</v>
+        <v>20330051920064</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C105" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D105" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E105" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F105" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>20330051920088</v>
+        <v>20330051920065</v>
       </c>
       <c r="B106" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C106" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D106" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>20330051920088</v>
+        <v>20330051920065</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C107" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D107" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>20330051920088</v>
+        <v>20330051920065</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C108" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E108" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>20330051920088</v>
+        <v>20330051920065</v>
       </c>
       <c r="B109" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C109" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D109" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E109" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>20330051920089</v>
+        <v>20330051920066</v>
       </c>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C110" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D110" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E110" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>56</v>
@@ -5546,96 +5543,96 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>20330051920089</v>
+        <v>20330051920068</v>
       </c>
       <c r="B111" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C111" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E111" t="s">
         <v>4</v>
       </c>
       <c r="F111" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>20330051920089</v>
+        <v>20330051920068</v>
       </c>
       <c r="B112" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C112" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D112" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E112" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>20330051920089</v>
+        <v>20330051920068</v>
       </c>
       <c r="B113" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C113" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D113" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>20330051920089</v>
+        <v>20330051920070</v>
       </c>
       <c r="B114" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D114" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E114" t="s">
         <v>7</v>
       </c>
       <c r="F114" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>20330051920089</v>
+        <v>20330051920070</v>
       </c>
       <c r="B115" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C115" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D115" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E115" t="s">
         <v>5</v>
@@ -5646,2042 +5643,162 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>20330051920090</v>
+        <v>20330051920070</v>
       </c>
       <c r="B116" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C116" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D116" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E116" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>20330051920090</v>
+        <v>20330051920070</v>
       </c>
       <c r="B117" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C117" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D117" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E117" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F117" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>20330051920090</v>
+        <v>20330051920069</v>
       </c>
       <c r="B118" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C118" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D118" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E118" t="s">
         <v>4</v>
       </c>
       <c r="F118" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>20330051920090</v>
+        <v>20330051920069</v>
       </c>
       <c r="B119" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C119" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D119" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E119" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>20330051920090</v>
+        <v>20330051920069</v>
       </c>
       <c r="B120" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C120" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D120" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>20330051920090</v>
+        <v>20330051920386</v>
       </c>
       <c r="B121" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C121" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D121" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F121" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>20330051920091</v>
+        <v>20330051920386</v>
       </c>
       <c r="B122" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C122" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D122" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>20330051920091</v>
+        <v>20330051920386</v>
       </c>
       <c r="B123" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C123" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D123" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>20330051920091</v>
-      </c>
-      <c r="B124" t="s">
-        <v>82</v>
-      </c>
-      <c r="C124" t="s">
-        <v>113</v>
-      </c>
-      <c r="D124" t="s">
-        <v>140</v>
-      </c>
-      <c r="E124" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>20330051920091</v>
-      </c>
-      <c r="B125" t="s">
-        <v>82</v>
-      </c>
-      <c r="C125" t="s">
-        <v>113</v>
-      </c>
-      <c r="D125" t="s">
-        <v>140</v>
-      </c>
-      <c r="E125" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>20330051920091</v>
-      </c>
-      <c r="B126" t="s">
-        <v>82</v>
-      </c>
-      <c r="C126" t="s">
-        <v>113</v>
-      </c>
-      <c r="D126" t="s">
-        <v>140</v>
-      </c>
-      <c r="E126" t="s">
-        <v>4</v>
-      </c>
-      <c r="F126" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>20330051920091</v>
-      </c>
-      <c r="B127" t="s">
-        <v>82</v>
-      </c>
-      <c r="C127" t="s">
-        <v>113</v>
-      </c>
-      <c r="D127" t="s">
-        <v>140</v>
-      </c>
-      <c r="E127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F127" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>20330051920092</v>
-      </c>
-      <c r="B128" t="s">
-        <v>83</v>
-      </c>
-      <c r="C128" t="s">
-        <v>96</v>
-      </c>
-      <c r="D128" t="s">
-        <v>146</v>
-      </c>
-      <c r="E128" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>20330051920092</v>
-      </c>
-      <c r="B129" t="s">
-        <v>83</v>
-      </c>
-      <c r="C129" t="s">
-        <v>96</v>
-      </c>
-      <c r="D129" t="s">
-        <v>146</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>20330051920092</v>
-      </c>
-      <c r="B130" t="s">
-        <v>83</v>
-      </c>
-      <c r="C130" t="s">
-        <v>96</v>
-      </c>
-      <c r="D130" t="s">
-        <v>146</v>
-      </c>
-      <c r="E130" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>20330051920092</v>
-      </c>
-      <c r="B131" t="s">
-        <v>83</v>
-      </c>
-      <c r="C131" t="s">
-        <v>96</v>
-      </c>
-      <c r="D131" t="s">
-        <v>146</v>
-      </c>
-      <c r="E131" t="s">
-        <v>5</v>
-      </c>
-      <c r="F131" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>20330051920092</v>
-      </c>
-      <c r="B132" t="s">
-        <v>83</v>
-      </c>
-      <c r="C132" t="s">
-        <v>96</v>
-      </c>
-      <c r="D132" t="s">
-        <v>146</v>
-      </c>
-      <c r="E132" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>20330051920092</v>
-      </c>
-      <c r="B133" t="s">
-        <v>83</v>
-      </c>
-      <c r="C133" t="s">
-        <v>96</v>
-      </c>
-      <c r="D133" t="s">
-        <v>146</v>
-      </c>
-      <c r="E133" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>20330051920093</v>
-      </c>
-      <c r="B134" t="s">
-        <v>84</v>
-      </c>
-      <c r="C134" t="s">
-        <v>114</v>
-      </c>
-      <c r="D134" t="s">
-        <v>147</v>
-      </c>
-      <c r="E134" t="s">
-        <v>5</v>
-      </c>
-      <c r="F134" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>20330051920093</v>
-      </c>
-      <c r="B135" t="s">
-        <v>84</v>
-      </c>
-      <c r="C135" t="s">
-        <v>114</v>
-      </c>
-      <c r="D135" t="s">
-        <v>147</v>
-      </c>
-      <c r="E135" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>20330051920093</v>
-      </c>
-      <c r="B136" t="s">
-        <v>84</v>
-      </c>
-      <c r="C136" t="s">
-        <v>114</v>
-      </c>
-      <c r="D136" t="s">
-        <v>147</v>
-      </c>
-      <c r="E136" t="s">
-        <v>6</v>
-      </c>
-      <c r="F136" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>20330051920093</v>
-      </c>
-      <c r="B137" t="s">
-        <v>84</v>
-      </c>
-      <c r="C137" t="s">
-        <v>114</v>
-      </c>
-      <c r="D137" t="s">
-        <v>147</v>
-      </c>
-      <c r="E137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>20330051920093</v>
-      </c>
-      <c r="B138" t="s">
-        <v>84</v>
-      </c>
-      <c r="C138" t="s">
-        <v>114</v>
-      </c>
-      <c r="D138" t="s">
-        <v>147</v>
-      </c>
-      <c r="E138" t="s">
-        <v>7</v>
-      </c>
-      <c r="F138" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>20330051920093</v>
-      </c>
-      <c r="B139" t="s">
-        <v>84</v>
-      </c>
-      <c r="C139" t="s">
-        <v>114</v>
-      </c>
-      <c r="D139" t="s">
-        <v>147</v>
-      </c>
-      <c r="E139" t="s">
-        <v>4</v>
-      </c>
-      <c r="F139" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>20330051920094</v>
-      </c>
-      <c r="B140" t="s">
-        <v>84</v>
-      </c>
-      <c r="C140" t="s">
-        <v>115</v>
-      </c>
-      <c r="D140" t="s">
-        <v>148</v>
-      </c>
-      <c r="E140" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>20330051920094</v>
-      </c>
-      <c r="B141" t="s">
-        <v>84</v>
-      </c>
-      <c r="C141" t="s">
-        <v>115</v>
-      </c>
-      <c r="D141" t="s">
-        <v>148</v>
-      </c>
-      <c r="E141" t="s">
-        <v>5</v>
-      </c>
-      <c r="F141" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>20330051920094</v>
-      </c>
-      <c r="B142" t="s">
-        <v>84</v>
-      </c>
-      <c r="C142" t="s">
-        <v>115</v>
-      </c>
-      <c r="D142" t="s">
-        <v>148</v>
-      </c>
-      <c r="E142" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>20330051920094</v>
-      </c>
-      <c r="B143" t="s">
-        <v>84</v>
-      </c>
-      <c r="C143" t="s">
-        <v>115</v>
-      </c>
-      <c r="D143" t="s">
-        <v>148</v>
-      </c>
-      <c r="E143" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>20330051920094</v>
-      </c>
-      <c r="B144" t="s">
-        <v>84</v>
-      </c>
-      <c r="C144" t="s">
-        <v>115</v>
-      </c>
-      <c r="D144" t="s">
-        <v>148</v>
-      </c>
-      <c r="E144" t="s">
-        <v>4</v>
-      </c>
-      <c r="F144" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>20330051920094</v>
-      </c>
-      <c r="B145" t="s">
-        <v>84</v>
-      </c>
-      <c r="C145" t="s">
-        <v>115</v>
-      </c>
-      <c r="D145" t="s">
-        <v>148</v>
-      </c>
-      <c r="E145" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>20330051920058</v>
-      </c>
-      <c r="B146" t="s">
-        <v>85</v>
-      </c>
-      <c r="C146" t="s">
-        <v>116</v>
-      </c>
-      <c r="D146" t="s">
-        <v>149</v>
-      </c>
-      <c r="E146" t="s">
-        <v>6</v>
-      </c>
-      <c r="F146" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>20330051920058</v>
-      </c>
-      <c r="B147" t="s">
-        <v>85</v>
-      </c>
-      <c r="C147" t="s">
-        <v>116</v>
-      </c>
-      <c r="D147" t="s">
-        <v>149</v>
-      </c>
-      <c r="E147" t="s">
-        <v>4</v>
-      </c>
-      <c r="F147" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>20330051920058</v>
-      </c>
-      <c r="B148" t="s">
-        <v>85</v>
-      </c>
-      <c r="C148" t="s">
-        <v>116</v>
-      </c>
-      <c r="D148" t="s">
-        <v>149</v>
-      </c>
-      <c r="E148" t="s">
-        <v>7</v>
-      </c>
-      <c r="F148" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>20330051920058</v>
-      </c>
-      <c r="B149" t="s">
-        <v>85</v>
-      </c>
-      <c r="C149" t="s">
-        <v>116</v>
-      </c>
-      <c r="D149" t="s">
-        <v>149</v>
-      </c>
-      <c r="E149" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>20330051920058</v>
-      </c>
-      <c r="B150" t="s">
-        <v>85</v>
-      </c>
-      <c r="C150" t="s">
-        <v>116</v>
-      </c>
-      <c r="D150" t="s">
-        <v>149</v>
-      </c>
-      <c r="E150" t="s">
-        <v>8</v>
-      </c>
-      <c r="F150" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>20330051920058</v>
-      </c>
-      <c r="B151" t="s">
-        <v>85</v>
-      </c>
-      <c r="C151" t="s">
-        <v>116</v>
-      </c>
-      <c r="D151" t="s">
-        <v>149</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>20330051920059</v>
-      </c>
-      <c r="B152" t="s">
-        <v>86</v>
-      </c>
-      <c r="C152" t="s">
-        <v>117</v>
-      </c>
-      <c r="D152" t="s">
-        <v>150</v>
-      </c>
-      <c r="E152" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>20330051920059</v>
-      </c>
-      <c r="B153" t="s">
-        <v>86</v>
-      </c>
-      <c r="C153" t="s">
-        <v>117</v>
-      </c>
-      <c r="D153" t="s">
-        <v>150</v>
-      </c>
-      <c r="E153" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>20330051920059</v>
-      </c>
-      <c r="B154" t="s">
-        <v>86</v>
-      </c>
-      <c r="C154" t="s">
-        <v>117</v>
-      </c>
-      <c r="D154" t="s">
-        <v>150</v>
-      </c>
-      <c r="E154" t="s">
-        <v>6</v>
-      </c>
-      <c r="F154" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>20330051920059</v>
-      </c>
-      <c r="B155" t="s">
-        <v>86</v>
-      </c>
-      <c r="C155" t="s">
-        <v>117</v>
-      </c>
-      <c r="D155" t="s">
-        <v>150</v>
-      </c>
-      <c r="E155" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>20330051920059</v>
-      </c>
-      <c r="B156" t="s">
-        <v>86</v>
-      </c>
-      <c r="C156" t="s">
-        <v>117</v>
-      </c>
-      <c r="D156" t="s">
-        <v>150</v>
-      </c>
-      <c r="E156" t="s">
-        <v>8</v>
-      </c>
-      <c r="F156" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>20330051920059</v>
-      </c>
-      <c r="B157" t="s">
-        <v>86</v>
-      </c>
-      <c r="C157" t="s">
-        <v>117</v>
-      </c>
-      <c r="D157" t="s">
-        <v>150</v>
-      </c>
-      <c r="E157" t="s">
-        <v>4</v>
-      </c>
-      <c r="F157" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>20330051920061</v>
-      </c>
-      <c r="B158" t="s">
-        <v>87</v>
-      </c>
-      <c r="C158" t="s">
-        <v>118</v>
-      </c>
-      <c r="D158" t="s">
-        <v>151</v>
-      </c>
-      <c r="E158" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>20330051920061</v>
-      </c>
-      <c r="B159" t="s">
-        <v>87</v>
-      </c>
-      <c r="C159" t="s">
-        <v>118</v>
-      </c>
-      <c r="D159" t="s">
-        <v>151</v>
-      </c>
-      <c r="E159" t="s">
-        <v>4</v>
-      </c>
-      <c r="F159" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>20330051920061</v>
-      </c>
-      <c r="B160" t="s">
-        <v>87</v>
-      </c>
-      <c r="C160" t="s">
-        <v>118</v>
-      </c>
-      <c r="D160" t="s">
-        <v>151</v>
-      </c>
-      <c r="E160" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>20330051920061</v>
-      </c>
-      <c r="B161" t="s">
-        <v>87</v>
-      </c>
-      <c r="C161" t="s">
-        <v>118</v>
-      </c>
-      <c r="D161" t="s">
-        <v>151</v>
-      </c>
-      <c r="E161" t="s">
-        <v>8</v>
-      </c>
-      <c r="F161" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>20330051920061</v>
-      </c>
-      <c r="B162" t="s">
-        <v>87</v>
-      </c>
-      <c r="C162" t="s">
-        <v>118</v>
-      </c>
-      <c r="D162" t="s">
-        <v>151</v>
-      </c>
-      <c r="E162" t="s">
-        <v>6</v>
-      </c>
-      <c r="F162" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>20330051920061</v>
-      </c>
-      <c r="B163" t="s">
-        <v>87</v>
-      </c>
-      <c r="C163" t="s">
-        <v>118</v>
-      </c>
-      <c r="D163" t="s">
-        <v>151</v>
-      </c>
-      <c r="E163" t="s">
-        <v>7</v>
-      </c>
-      <c r="F163" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>20330051920062</v>
-      </c>
-      <c r="B164" t="s">
-        <v>88</v>
-      </c>
-      <c r="C164" t="s">
-        <v>86</v>
-      </c>
-      <c r="D164" t="s">
-        <v>152</v>
-      </c>
-      <c r="E164" t="s">
-        <v>5</v>
-      </c>
-      <c r="F164" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>20330051920062</v>
-      </c>
-      <c r="B165" t="s">
-        <v>88</v>
-      </c>
-      <c r="C165" t="s">
-        <v>86</v>
-      </c>
-      <c r="D165" t="s">
-        <v>152</v>
-      </c>
-      <c r="E165" t="s">
-        <v>4</v>
-      </c>
-      <c r="F165" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>20330051920062</v>
-      </c>
-      <c r="B166" t="s">
-        <v>88</v>
-      </c>
-      <c r="C166" t="s">
-        <v>86</v>
-      </c>
-      <c r="D166" t="s">
-        <v>152</v>
-      </c>
-      <c r="E166" t="s">
-        <v>9</v>
-      </c>
-      <c r="F166" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>20330051920062</v>
-      </c>
-      <c r="B167" t="s">
-        <v>88</v>
-      </c>
-      <c r="C167" t="s">
-        <v>86</v>
-      </c>
-      <c r="D167" t="s">
-        <v>152</v>
-      </c>
-      <c r="E167" t="s">
-        <v>7</v>
-      </c>
-      <c r="F167" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>20330051920062</v>
-      </c>
-      <c r="B168" t="s">
-        <v>88</v>
-      </c>
-      <c r="C168" t="s">
-        <v>86</v>
-      </c>
-      <c r="D168" t="s">
-        <v>152</v>
-      </c>
-      <c r="E168" t="s">
-        <v>6</v>
-      </c>
-      <c r="F168" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>20330051920062</v>
-      </c>
-      <c r="B169" t="s">
-        <v>88</v>
-      </c>
-      <c r="C169" t="s">
-        <v>86</v>
-      </c>
-      <c r="D169" t="s">
-        <v>152</v>
-      </c>
-      <c r="E169" t="s">
-        <v>8</v>
-      </c>
-      <c r="F169" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>20330051920063</v>
-      </c>
-      <c r="B170" t="s">
-        <v>89</v>
-      </c>
-      <c r="C170" t="s">
-        <v>119</v>
-      </c>
-      <c r="D170" t="s">
-        <v>153</v>
-      </c>
-      <c r="E170" t="s">
-        <v>9</v>
-      </c>
-      <c r="F170" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>20330051920063</v>
-      </c>
-      <c r="B171" t="s">
-        <v>89</v>
-      </c>
-      <c r="C171" t="s">
-        <v>119</v>
-      </c>
-      <c r="D171" t="s">
-        <v>153</v>
-      </c>
-      <c r="E171" t="s">
-        <v>5</v>
-      </c>
-      <c r="F171" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>20330051920063</v>
-      </c>
-      <c r="B172" t="s">
-        <v>89</v>
-      </c>
-      <c r="C172" t="s">
-        <v>119</v>
-      </c>
-      <c r="D172" t="s">
-        <v>153</v>
-      </c>
-      <c r="E172" t="s">
-        <v>8</v>
-      </c>
-      <c r="F172" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>20330051920063</v>
-      </c>
-      <c r="B173" t="s">
-        <v>89</v>
-      </c>
-      <c r="C173" t="s">
-        <v>119</v>
-      </c>
-      <c r="D173" t="s">
-        <v>153</v>
-      </c>
-      <c r="E173" t="s">
-        <v>6</v>
-      </c>
-      <c r="F173" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>20330051920063</v>
-      </c>
-      <c r="B174" t="s">
-        <v>89</v>
-      </c>
-      <c r="C174" t="s">
-        <v>119</v>
-      </c>
-      <c r="D174" t="s">
-        <v>153</v>
-      </c>
-      <c r="E174" t="s">
-        <v>7</v>
-      </c>
-      <c r="F174" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>20330051920063</v>
-      </c>
-      <c r="B175" t="s">
-        <v>89</v>
-      </c>
-      <c r="C175" t="s">
-        <v>119</v>
-      </c>
-      <c r="D175" t="s">
-        <v>153</v>
-      </c>
-      <c r="E175" t="s">
-        <v>4</v>
-      </c>
-      <c r="F175" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>20330051920064</v>
-      </c>
-      <c r="B176" t="s">
-        <v>90</v>
-      </c>
-      <c r="C176" t="s">
-        <v>120</v>
-      </c>
-      <c r="D176" t="s">
-        <v>154</v>
-      </c>
-      <c r="E176" t="s">
-        <v>7</v>
-      </c>
-      <c r="F176" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>20330051920064</v>
-      </c>
-      <c r="B177" t="s">
-        <v>90</v>
-      </c>
-      <c r="C177" t="s">
-        <v>120</v>
-      </c>
-      <c r="D177" t="s">
-        <v>154</v>
-      </c>
-      <c r="E177" t="s">
-        <v>8</v>
-      </c>
-      <c r="F177" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>20330051920064</v>
-      </c>
-      <c r="B178" t="s">
-        <v>90</v>
-      </c>
-      <c r="C178" t="s">
-        <v>120</v>
-      </c>
-      <c r="D178" t="s">
-        <v>154</v>
-      </c>
-      <c r="E178" t="s">
-        <v>4</v>
-      </c>
-      <c r="F178" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>20330051920064</v>
-      </c>
-      <c r="B179" t="s">
-        <v>90</v>
-      </c>
-      <c r="C179" t="s">
-        <v>120</v>
-      </c>
-      <c r="D179" t="s">
-        <v>154</v>
-      </c>
-      <c r="E179" t="s">
-        <v>6</v>
-      </c>
-      <c r="F179" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>20330051920064</v>
-      </c>
-      <c r="B180" t="s">
-        <v>90</v>
-      </c>
-      <c r="C180" t="s">
-        <v>120</v>
-      </c>
-      <c r="D180" t="s">
-        <v>154</v>
-      </c>
-      <c r="E180" t="s">
-        <v>5</v>
-      </c>
-      <c r="F180" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>20330051920064</v>
-      </c>
-      <c r="B181" t="s">
-        <v>90</v>
-      </c>
-      <c r="C181" t="s">
-        <v>120</v>
-      </c>
-      <c r="D181" t="s">
-        <v>154</v>
-      </c>
-      <c r="E181" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>20330051920065</v>
-      </c>
-      <c r="B182" t="s">
-        <v>91</v>
-      </c>
-      <c r="C182" t="s">
-        <v>121</v>
-      </c>
-      <c r="D182" t="s">
-        <v>155</v>
-      </c>
-      <c r="E182" t="s">
-        <v>5</v>
-      </c>
-      <c r="F182" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>20330051920065</v>
-      </c>
-      <c r="B183" t="s">
-        <v>91</v>
-      </c>
-      <c r="C183" t="s">
-        <v>121</v>
-      </c>
-      <c r="D183" t="s">
-        <v>155</v>
-      </c>
-      <c r="E183" t="s">
-        <v>9</v>
-      </c>
-      <c r="F183" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>20330051920065</v>
-      </c>
-      <c r="B184" t="s">
-        <v>91</v>
-      </c>
-      <c r="C184" t="s">
-        <v>121</v>
-      </c>
-      <c r="D184" t="s">
-        <v>155</v>
-      </c>
-      <c r="E184" t="s">
-        <v>4</v>
-      </c>
-      <c r="F184" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>20330051920065</v>
-      </c>
-      <c r="B185" t="s">
-        <v>91</v>
-      </c>
-      <c r="C185" t="s">
-        <v>121</v>
-      </c>
-      <c r="D185" t="s">
-        <v>155</v>
-      </c>
-      <c r="E185" t="s">
-        <v>7</v>
-      </c>
-      <c r="F185" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>20330051920065</v>
-      </c>
-      <c r="B186" t="s">
-        <v>91</v>
-      </c>
-      <c r="C186" t="s">
-        <v>121</v>
-      </c>
-      <c r="D186" t="s">
-        <v>155</v>
-      </c>
-      <c r="E186" t="s">
-        <v>8</v>
-      </c>
-      <c r="F186" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>20330051920065</v>
-      </c>
-      <c r="B187" t="s">
-        <v>91</v>
-      </c>
-      <c r="C187" t="s">
-        <v>121</v>
-      </c>
-      <c r="D187" t="s">
-        <v>155</v>
-      </c>
-      <c r="E187" t="s">
-        <v>6</v>
-      </c>
-      <c r="F187" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>20330051920066</v>
-      </c>
-      <c r="B188" t="s">
-        <v>92</v>
-      </c>
-      <c r="C188" t="s">
-        <v>122</v>
-      </c>
-      <c r="D188" t="s">
-        <v>156</v>
-      </c>
-      <c r="E188" t="s">
-        <v>7</v>
-      </c>
-      <c r="F188" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>20330051920066</v>
-      </c>
-      <c r="B189" t="s">
-        <v>92</v>
-      </c>
-      <c r="C189" t="s">
-        <v>122</v>
-      </c>
-      <c r="D189" t="s">
-        <v>156</v>
-      </c>
-      <c r="E189" t="s">
-        <v>4</v>
-      </c>
-      <c r="F189" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>20330051920066</v>
-      </c>
-      <c r="B190" t="s">
-        <v>92</v>
-      </c>
-      <c r="C190" t="s">
-        <v>122</v>
-      </c>
-      <c r="D190" t="s">
-        <v>156</v>
-      </c>
-      <c r="E190" t="s">
-        <v>9</v>
-      </c>
-      <c r="F190" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>20330051920066</v>
-      </c>
-      <c r="B191" t="s">
-        <v>92</v>
-      </c>
-      <c r="C191" t="s">
-        <v>122</v>
-      </c>
-      <c r="D191" t="s">
-        <v>156</v>
-      </c>
-      <c r="E191" t="s">
-        <v>6</v>
-      </c>
-      <c r="F191" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>20330051920066</v>
-      </c>
-      <c r="B192" t="s">
-        <v>92</v>
-      </c>
-      <c r="C192" t="s">
-        <v>122</v>
-      </c>
-      <c r="D192" t="s">
-        <v>156</v>
-      </c>
-      <c r="E192" t="s">
-        <v>5</v>
-      </c>
-      <c r="F192" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>20330051920066</v>
-      </c>
-      <c r="B193" t="s">
-        <v>92</v>
-      </c>
-      <c r="C193" t="s">
-        <v>122</v>
-      </c>
-      <c r="D193" t="s">
-        <v>156</v>
-      </c>
-      <c r="E193" t="s">
-        <v>8</v>
-      </c>
-      <c r="F193" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>20330051920068</v>
-      </c>
-      <c r="B194" t="s">
-        <v>93</v>
-      </c>
-      <c r="C194" t="s">
-        <v>75</v>
-      </c>
-      <c r="D194" t="s">
-        <v>157</v>
-      </c>
-      <c r="E194" t="s">
-        <v>7</v>
-      </c>
-      <c r="F194" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>20330051920068</v>
-      </c>
-      <c r="B195" t="s">
-        <v>93</v>
-      </c>
-      <c r="C195" t="s">
-        <v>75</v>
-      </c>
-      <c r="D195" t="s">
-        <v>157</v>
-      </c>
-      <c r="E195" t="s">
-        <v>9</v>
-      </c>
-      <c r="F195" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>20330051920068</v>
-      </c>
-      <c r="B196" t="s">
-        <v>93</v>
-      </c>
-      <c r="C196" t="s">
-        <v>75</v>
-      </c>
-      <c r="D196" t="s">
-        <v>157</v>
-      </c>
-      <c r="E196" t="s">
-        <v>4</v>
-      </c>
-      <c r="F196" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>20330051920068</v>
-      </c>
-      <c r="B197" t="s">
-        <v>93</v>
-      </c>
-      <c r="C197" t="s">
-        <v>75</v>
-      </c>
-      <c r="D197" t="s">
-        <v>157</v>
-      </c>
-      <c r="E197" t="s">
-        <v>8</v>
-      </c>
-      <c r="F197" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>20330051920068</v>
-      </c>
-      <c r="B198" t="s">
-        <v>93</v>
-      </c>
-      <c r="C198" t="s">
-        <v>75</v>
-      </c>
-      <c r="D198" t="s">
-        <v>157</v>
-      </c>
-      <c r="E198" t="s">
-        <v>6</v>
-      </c>
-      <c r="F198" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>20330051920068</v>
-      </c>
-      <c r="B199" t="s">
-        <v>93</v>
-      </c>
-      <c r="C199" t="s">
-        <v>75</v>
-      </c>
-      <c r="D199" t="s">
-        <v>157</v>
-      </c>
-      <c r="E199" t="s">
-        <v>5</v>
-      </c>
-      <c r="F199" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>20330051920070</v>
-      </c>
-      <c r="B200" t="s">
-        <v>93</v>
-      </c>
-      <c r="C200" t="s">
-        <v>123</v>
-      </c>
-      <c r="D200" t="s">
-        <v>158</v>
-      </c>
-      <c r="E200" t="s">
-        <v>4</v>
-      </c>
-      <c r="F200" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>20330051920070</v>
-      </c>
-      <c r="B201" t="s">
-        <v>93</v>
-      </c>
-      <c r="C201" t="s">
-        <v>123</v>
-      </c>
-      <c r="D201" t="s">
-        <v>158</v>
-      </c>
-      <c r="E201" t="s">
-        <v>5</v>
-      </c>
-      <c r="F201" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>20330051920070</v>
-      </c>
-      <c r="B202" t="s">
-        <v>93</v>
-      </c>
-      <c r="C202" t="s">
-        <v>123</v>
-      </c>
-      <c r="D202" t="s">
-        <v>158</v>
-      </c>
-      <c r="E202" t="s">
-        <v>7</v>
-      </c>
-      <c r="F202" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>20330051920070</v>
-      </c>
-      <c r="B203" t="s">
-        <v>93</v>
-      </c>
-      <c r="C203" t="s">
-        <v>123</v>
-      </c>
-      <c r="D203" t="s">
-        <v>158</v>
-      </c>
-      <c r="E203" t="s">
-        <v>6</v>
-      </c>
-      <c r="F203" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>20330051920070</v>
-      </c>
-      <c r="B204" t="s">
-        <v>93</v>
-      </c>
-      <c r="C204" t="s">
-        <v>123</v>
-      </c>
-      <c r="D204" t="s">
-        <v>158</v>
-      </c>
-      <c r="E204" t="s">
-        <v>9</v>
-      </c>
-      <c r="F204" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>20330051920070</v>
-      </c>
-      <c r="B205" t="s">
-        <v>93</v>
-      </c>
-      <c r="C205" t="s">
-        <v>123</v>
-      </c>
-      <c r="D205" t="s">
-        <v>158</v>
-      </c>
-      <c r="E205" t="s">
-        <v>8</v>
-      </c>
-      <c r="F205" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>20330051920069</v>
-      </c>
-      <c r="B206" t="s">
-        <v>94</v>
-      </c>
-      <c r="C206" t="s">
-        <v>124</v>
-      </c>
-      <c r="D206" t="s">
-        <v>159</v>
-      </c>
-      <c r="E206" t="s">
-        <v>9</v>
-      </c>
-      <c r="F206" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>20330051920069</v>
-      </c>
-      <c r="B207" t="s">
-        <v>94</v>
-      </c>
-      <c r="C207" t="s">
-        <v>124</v>
-      </c>
-      <c r="D207" t="s">
-        <v>159</v>
-      </c>
-      <c r="E207" t="s">
-        <v>7</v>
-      </c>
-      <c r="F207" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>20330051920069</v>
-      </c>
-      <c r="B208" t="s">
-        <v>94</v>
-      </c>
-      <c r="C208" t="s">
-        <v>124</v>
-      </c>
-      <c r="D208" t="s">
-        <v>159</v>
-      </c>
-      <c r="E208" t="s">
-        <v>8</v>
-      </c>
-      <c r="F208" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>20330051920069</v>
-      </c>
-      <c r="B209" t="s">
-        <v>94</v>
-      </c>
-      <c r="C209" t="s">
-        <v>124</v>
-      </c>
-      <c r="D209" t="s">
-        <v>159</v>
-      </c>
-      <c r="E209" t="s">
-        <v>5</v>
-      </c>
-      <c r="F209" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>20330051920069</v>
-      </c>
-      <c r="B210" t="s">
-        <v>94</v>
-      </c>
-      <c r="C210" t="s">
-        <v>124</v>
-      </c>
-      <c r="D210" t="s">
-        <v>159</v>
-      </c>
-      <c r="E210" t="s">
-        <v>4</v>
-      </c>
-      <c r="F210" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211">
-        <v>20330051920069</v>
-      </c>
-      <c r="B211" t="s">
-        <v>94</v>
-      </c>
-      <c r="C211" t="s">
-        <v>124</v>
-      </c>
-      <c r="D211" t="s">
-        <v>159</v>
-      </c>
-      <c r="E211" t="s">
-        <v>6</v>
-      </c>
-      <c r="F211" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212">
-        <v>20330051920386</v>
-      </c>
-      <c r="B212" t="s">
-        <v>95</v>
-      </c>
-      <c r="C212" t="s">
-        <v>125</v>
-      </c>
-      <c r="D212" t="s">
-        <v>160</v>
-      </c>
-      <c r="E212" t="s">
-        <v>9</v>
-      </c>
-      <c r="F212" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213">
-        <v>20330051920386</v>
-      </c>
-      <c r="B213" t="s">
-        <v>95</v>
-      </c>
-      <c r="C213" t="s">
-        <v>125</v>
-      </c>
-      <c r="D213" t="s">
-        <v>160</v>
-      </c>
-      <c r="E213" t="s">
-        <v>4</v>
-      </c>
-      <c r="F213" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214">
-        <v>20330051920386</v>
-      </c>
-      <c r="B214" t="s">
-        <v>95</v>
-      </c>
-      <c r="C214" t="s">
-        <v>125</v>
-      </c>
-      <c r="D214" t="s">
-        <v>160</v>
-      </c>
-      <c r="E214" t="s">
-        <v>6</v>
-      </c>
-      <c r="F214" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215">
-        <v>20330051920386</v>
-      </c>
-      <c r="B215" t="s">
-        <v>95</v>
-      </c>
-      <c r="C215" t="s">
-        <v>125</v>
-      </c>
-      <c r="D215" t="s">
-        <v>160</v>
-      </c>
-      <c r="E215" t="s">
-        <v>7</v>
-      </c>
-      <c r="F215" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216">
-        <v>20330051920386</v>
-      </c>
-      <c r="B216" t="s">
-        <v>95</v>
-      </c>
-      <c r="C216" t="s">
-        <v>125</v>
-      </c>
-      <c r="D216" t="s">
-        <v>160</v>
-      </c>
-      <c r="E216" t="s">
-        <v>5</v>
-      </c>
-      <c r="F216" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217">
-        <v>20330051920386</v>
-      </c>
-      <c r="B217" t="s">
-        <v>95</v>
-      </c>
-      <c r="C217" t="s">
-        <v>125</v>
-      </c>
-      <c r="D217" t="s">
-        <v>160</v>
-      </c>
-      <c r="E217" t="s">
-        <v>8</v>
-      </c>
-      <c r="F217" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -7720,84 +5837,84 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920076</v>
+        <v>20330051920071</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920083</v>
+        <v>20330051920076</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920085</v>
+        <v>20330051920078</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920094</v>
+        <v>20330051920083</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920074</v>
+        <v>20330051920085</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -7805,118 +5922,118 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920080</v>
+        <v>20330051920072</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920082</v>
+        <v>20330051920073</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920089</v>
+        <v>20330051920074</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920092</v>
+        <v>20330051920081</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920063</v>
+        <v>20330051920082</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920070</v>
+        <v>20330051920084</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920071</v>
+        <v>20330051920087</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -7924,16 +6041,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920073</v>
+        <v>20330051920089</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -7941,16 +6058,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920077</v>
+        <v>20330051920090</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -7958,16 +6075,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920078</v>
+        <v>20330051920092</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -7975,16 +6092,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920081</v>
+        <v>20330051920094</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -7992,16 +6109,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920084</v>
+        <v>20330051920059</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -8009,16 +6126,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920069</v>
+        <v>20330051920063</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -8026,16 +6143,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920386</v>
+        <v>20330051920065</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -8043,33 +6160,33 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920072</v>
+        <v>20330051920070</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920087</v>
+        <v>20330051920041</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -8077,16 +6194,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920090</v>
+        <v>20330051920359</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -8094,16 +6211,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920059</v>
+        <v>20330051920077</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -8111,16 +6228,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920065</v>
+        <v>20330051920080</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -8128,206 +6245,206 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920093</v>
+        <v>20330051920091</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920066</v>
+        <v>20330051920093</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920359</v>
+        <v>20330051920068</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920058</v>
+        <v>20330051920069</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920061</v>
+        <v>20330051920386</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920064</v>
+        <v>20330051920075</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920068</v>
+        <v>20330051920061</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920041</v>
+        <v>20330051920062</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920075</v>
+        <v>20330051920088</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920088</v>
+        <v>20330051920058</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20330051920091</v>
+        <v>20330051920064</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>20330051920062</v>
+        <v>20330051920066</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8337,7 +6454,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8367,7 +6484,237 @@
         <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920075</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920075</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920061</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920061</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920062</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920062</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920088</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920058</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920064</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920066</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/2AEV - Estadisticos 2020.xlsx
+++ b/grupos/2AEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="161">
   <si>
     <t>Materia</t>
   </si>
@@ -188,24 +188,24 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Medina Tolentino Francisco</t>
+  </si>
+  <si>
+    <t>Zarate Amezcua Eladio Jorge</t>
+  </si>
+  <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
+    <t>Contreras Díaz Irma Ivette</t>
+  </si>
+  <si>
+    <t>Villanueva Morales Luis Arturo</t>
+  </si>
+  <si>
     <t>Silva Villegas Mario</t>
   </si>
   <si>
-    <t>Medina Tolentino Francisco</t>
-  </si>
-  <si>
-    <t>Zarate Amezcua Eladio Jorge</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
-    <t>Contreras Díaz Irma Ivette</t>
-  </si>
-  <si>
-    <t>Villanueva Morales Luis Arturo</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -257,250 +257,250 @@
     <t>MARROQUIN</t>
   </si>
   <si>
+    <t>MIXCOHA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ROSETE</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>XALAMIHUA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>PONCE</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>BAROJAS</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>JOAQUIN</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>SALAS</t>
+  </si>
+  <si>
+    <t>URBINA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>AXEL JESUS</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>PAUL ARAVIER</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>KARLA JOVANA</t>
+  </si>
+  <si>
+    <t>NORKYS AIRY</t>
+  </si>
+  <si>
+    <t>JORGE HUMBERTO</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>DULIAM</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>CRISTIAN JAHIR</t>
+  </si>
+  <si>
+    <t>SAID ANDRES</t>
+  </si>
+  <si>
+    <t>SAMIR</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>JOSAFAT</t>
+  </si>
+  <si>
+    <t>GABRIEL JOSUE</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DIEGO IVAN</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>JOHAN ALEJANDRO</t>
+  </si>
+  <si>
+    <t>IAN LAEL</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>ALAN URIEL</t>
+  </si>
+  <si>
+    <t>AMANDA MICHEL</t>
+  </si>
+  <si>
+    <t>VICTOR GAEL</t>
+  </si>
+  <si>
+    <t>ALDIR ADALBERTO</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>AYLIN MELISSA</t>
+  </si>
+  <si>
+    <t>ZGAIP</t>
+  </si>
+  <si>
     <t>MAYAHUA</t>
   </si>
   <si>
-    <t>MIXCOHA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>ROSETE</t>
-  </si>
-  <si>
     <t>ROJAS</t>
   </si>
   <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
     <t>SILVESTRE</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>CASTAÑEDA</t>
-  </si>
-  <si>
-    <t>MEDINA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>XALAMIHUA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>PONCE</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>TEMOXTLE</t>
   </si>
   <si>
-    <t>EVARISTO</t>
-  </si>
-  <si>
-    <t>BAROJAS</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
     <t>BELLO</t>
   </si>
   <si>
-    <t>JOAQUIN</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>SALAS</t>
-  </si>
-  <si>
     <t>VELASCO</t>
   </si>
   <si>
-    <t>URBINA</t>
-  </si>
-  <si>
     <t>ARIAS</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>YAEL</t>
-  </si>
-  <si>
-    <t>AXEL JESUS</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
-    <t>PAUL ARAVIER</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>KARLA JOVANA</t>
-  </si>
-  <si>
-    <t>NORKYS AIRY</t>
-  </si>
-  <si>
-    <t>JORGE HUMBERTO</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL</t>
-  </si>
-  <si>
-    <t>ADRIAN</t>
-  </si>
-  <si>
-    <t>DULIAM</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>CRISTIAN JAHIR</t>
-  </si>
-  <si>
-    <t>SAID ANDRES</t>
-  </si>
-  <si>
-    <t>SAMIR</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>JOSAFAT</t>
-  </si>
-  <si>
-    <t>GABRIEL JOSUE</t>
-  </si>
-  <si>
     <t>ELIAS</t>
   </si>
   <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>DIEGO IVAN</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>JOHAN ALEJANDRO</t>
-  </si>
-  <si>
-    <t>IAN LAEL</t>
-  </si>
-  <si>
     <t>ZURIEL ARTURO</t>
   </si>
   <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>ALAN URIEL</t>
-  </si>
-  <si>
-    <t>AMANDA MICHEL</t>
-  </si>
-  <si>
-    <t>VICTOR GAEL</t>
-  </si>
-  <si>
     <t>JORGE ALEJANDRO</t>
   </si>
   <si>
-    <t>ALDIR ADALBERTO</t>
-  </si>
-  <si>
     <t>YAIR</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>AYLIN MELISSA</t>
-  </si>
-  <si>
-    <t>ZGAIP</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
         <v>9</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>7</v>
@@ -996,7 +996,7 @@
         <v>9</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -1022,7 +1022,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -1040,7 +1040,7 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -1081,7 +1081,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1099,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -1158,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -1217,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I8">
         <v>6</v>
@@ -1258,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -1276,7 +1276,7 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -1335,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I10">
         <v>7</v>
@@ -1376,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -1394,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -1435,7 +1435,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1453,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -1494,7 +1494,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1512,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1553,7 +1553,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1571,7 +1571,7 @@
         <v>7</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -1612,7 +1612,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -1630,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1671,7 +1671,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -1689,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1730,7 +1730,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -1748,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1789,7 +1789,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -1807,7 +1807,7 @@
         <v>8</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -1848,7 +1848,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -1866,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -1907,7 +1907,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -1925,7 +1925,7 @@
         <v>5</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -1984,7 +1984,7 @@
         <v>10</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I21">
         <v>7</v>
@@ -2025,7 +2025,7 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -2043,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -2084,7 +2084,7 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -2102,7 +2102,7 @@
         <v>5</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -2143,7 +2143,7 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -2161,7 +2161,7 @@
         <v>5</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I24">
         <v>6</v>
@@ -2220,7 +2220,7 @@
         <v>7</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I25">
         <v>7</v>
@@ -2261,7 +2261,7 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -2279,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -2338,7 +2338,7 @@
         <v>7</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I27">
         <v>6</v>
@@ -2379,7 +2379,7 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -2397,7 +2397,7 @@
         <v>5</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I28">
         <v>-1</v>
@@ -2456,7 +2456,7 @@
         <v>8</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I29">
         <v>6</v>
@@ -2497,7 +2497,7 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -2515,7 +2515,7 @@
         <v>8</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I30">
         <v>-1</v>
@@ -2574,7 +2574,7 @@
         <v>8</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I31">
         <v>6</v>
@@ -2633,7 +2633,7 @@
         <v>10</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I32">
         <v>7</v>
@@ -2692,7 +2692,7 @@
         <v>8</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I33">
         <v>9</v>
@@ -2733,7 +2733,7 @@
         <v>41</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>-1</v>
@@ -2751,7 +2751,7 @@
         <v>5</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I34">
         <v>-1</v>
@@ -2792,7 +2792,7 @@
         <v>42</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -2810,7 +2810,7 @@
         <v>5</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I35">
         <v>-1</v>
@@ -2869,7 +2869,7 @@
         <v>7</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I36">
         <v>9</v>
@@ -2928,7 +2928,7 @@
         <v>6</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I37">
         <v>6</v>
@@ -2969,7 +2969,7 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C38">
         <v>-1</v>
@@ -2987,7 +2987,7 @@
         <v>5</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I38">
         <v>-1</v>
@@ -3028,7 +3028,7 @@
         <v>46</v>
       </c>
       <c r="B39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -3046,7 +3046,7 @@
         <v>5</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I39">
         <v>6</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -3146,27 +3146,30 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>13.89</v>
       </c>
       <c r="G2">
         <v>36.11</v>
       </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
       <c r="I2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>86.11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -3175,30 +3178,30 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>13.89</v>
+        <v>22.22</v>
       </c>
       <c r="G3">
-        <v>36.11</v>
+        <v>77.78</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="I3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J3">
-        <v>86.11</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -3207,30 +3210,30 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>19.44</v>
+        <v>36.11</v>
       </c>
       <c r="G4">
-        <v>80.56</v>
+        <v>33.33</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="I4">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J4">
-        <v>80.56</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -3239,30 +3242,30 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>36.11</v>
+        <v>38.89</v>
       </c>
       <c r="G5">
-        <v>33.33</v>
+        <v>61.11</v>
       </c>
       <c r="H5">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>55.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -3271,30 +3274,30 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>38.89</v>
+        <v>83.33</v>
       </c>
       <c r="G6">
-        <v>61.11</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -3303,25 +3306,25 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>83.33</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3331,7 +3334,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3369,56 +3372,56 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920041</v>
+        <v>20330051920071</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920041</v>
+        <v>20330051920071</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3429,13 +3432,13 @@
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -3449,13 +3452,13 @@
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
@@ -3463,199 +3466,199 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920071</v>
+        <v>20330051920072</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920071</v>
+        <v>20330051920072</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920071</v>
+        <v>20330051920072</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920072</v>
+        <v>20330051920073</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920072</v>
+        <v>20330051920073</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920072</v>
+        <v>20330051920073</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920072</v>
+        <v>20330051920359</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920073</v>
+        <v>20330051920359</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920073</v>
+        <v>20330051920074</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920073</v>
+        <v>20330051920074</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>57</v>
@@ -3663,19 +3666,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920073</v>
+        <v>20330051920074</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
         <v>56</v>
@@ -3683,19 +3686,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920359</v>
+        <v>20330051920075</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
         <v>56</v>
@@ -3703,59 +3706,59 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920359</v>
+        <v>20330051920076</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920359</v>
+        <v>20330051920076</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920074</v>
+        <v>20330051920076</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
         <v>57</v>
@@ -3763,99 +3766,99 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920074</v>
+        <v>20330051920076</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920074</v>
+        <v>20330051920077</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920074</v>
+        <v>20330051920077</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920075</v>
+        <v>20330051920078</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920075</v>
+        <v>20330051920078</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
         <v>57</v>
@@ -3863,19 +3866,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920076</v>
+        <v>20330051920078</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
         <v>56</v>
@@ -3883,119 +3886,119 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920076</v>
+        <v>20330051920078</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920076</v>
+        <v>20330051920080</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920076</v>
+        <v>20330051920080</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920076</v>
+        <v>20330051920081</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920077</v>
+        <v>20330051920081</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920077</v>
+        <v>20330051920081</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
         <v>56</v>
@@ -4003,139 +4006,139 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920077</v>
+        <v>20330051920082</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920078</v>
+        <v>20330051920082</v>
       </c>
       <c r="B35" t="s">
         <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920078</v>
+        <v>20330051920082</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920078</v>
+        <v>20330051920083</v>
       </c>
       <c r="B37" t="s">
         <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920078</v>
+        <v>20330051920083</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920078</v>
+        <v>20330051920083</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920080</v>
+        <v>20330051920083</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
         <v>56</v>
@@ -4143,99 +4146,99 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920080</v>
+        <v>20330051920084</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920080</v>
+        <v>20330051920084</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920081</v>
+        <v>20330051920084</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920081</v>
+        <v>20330051920085</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920081</v>
+        <v>20330051920085</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
         <v>56</v>
@@ -4243,239 +4246,239 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920081</v>
+        <v>20330051920085</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920082</v>
+        <v>20330051920085</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920082</v>
+        <v>20330051920087</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920082</v>
+        <v>20330051920087</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920082</v>
+        <v>20330051920087</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920083</v>
+        <v>20330051920089</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920083</v>
+        <v>20330051920089</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920083</v>
+        <v>20330051920089</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920083</v>
+        <v>20330051920090</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920083</v>
+        <v>20330051920090</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920084</v>
+        <v>20330051920090</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
         <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920084</v>
+        <v>20330051920091</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
         <v>57</v>
@@ -4483,19 +4486,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920084</v>
+        <v>20330051920091</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D58" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
         <v>56</v>
@@ -4503,159 +4506,159 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20330051920084</v>
+        <v>20330051920092</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20330051920085</v>
+        <v>20330051920092</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20330051920085</v>
+        <v>20330051920092</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20330051920085</v>
+        <v>20330051920093</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20330051920085</v>
+        <v>20330051920093</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>20330051920085</v>
+        <v>20330051920094</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20330051920087</v>
+        <v>20330051920094</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>20330051920087</v>
+        <v>20330051920094</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
         <v>56</v>
@@ -4663,179 +4666,179 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>20330051920087</v>
+        <v>20330051920059</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>20330051920087</v>
+        <v>20330051920059</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D68" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E68" t="s">
         <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>20330051920088</v>
+        <v>20330051920059</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E69" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>20330051920089</v>
+        <v>20330051920061</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>20330051920089</v>
+        <v>20330051920062</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>20330051920089</v>
+        <v>20330051920063</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>20330051920089</v>
+        <v>20330051920063</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>20330051920090</v>
+        <v>20330051920063</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>20330051920090</v>
+        <v>20330051920065</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E75" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F75" t="s">
         <v>56</v>
@@ -4843,19 +4846,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>20330051920090</v>
+        <v>20330051920065</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
         <v>57</v>
@@ -4863,79 +4866,79 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>20330051920090</v>
+        <v>20330051920065</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>20330051920091</v>
+        <v>20330051920068</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>20330051920091</v>
+        <v>20330051920068</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D79" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E79" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>20330051920091</v>
+        <v>20330051920070</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D80" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
         <v>57</v>
@@ -4943,862 +4946,122 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>20330051920092</v>
+        <v>20330051920070</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D81" t="s">
         <v>146</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>20330051920092</v>
+        <v>20330051920070</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D82" t="s">
         <v>146</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>20330051920092</v>
+        <v>20330051920069</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E83" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>20330051920092</v>
+        <v>20330051920069</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D84" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>20330051920093</v>
+        <v>20330051920386</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D85" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>20330051920093</v>
+        <v>20330051920386</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D86" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>20330051920093</v>
-      </c>
-      <c r="B87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" t="s">
-        <v>114</v>
-      </c>
-      <c r="D87" t="s">
-        <v>147</v>
-      </c>
-      <c r="E87" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>20330051920094</v>
-      </c>
-      <c r="B88" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" t="s">
-        <v>115</v>
-      </c>
-      <c r="D88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E88" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>20330051920094</v>
-      </c>
-      <c r="B89" t="s">
-        <v>84</v>
-      </c>
-      <c r="C89" t="s">
-        <v>115</v>
-      </c>
-      <c r="D89" t="s">
-        <v>148</v>
-      </c>
-      <c r="E89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>20330051920094</v>
-      </c>
-      <c r="B90" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" t="s">
-        <v>115</v>
-      </c>
-      <c r="D90" t="s">
-        <v>148</v>
-      </c>
-      <c r="E90" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>20330051920094</v>
-      </c>
-      <c r="B91" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" t="s">
-        <v>115</v>
-      </c>
-      <c r="D91" t="s">
-        <v>148</v>
-      </c>
-      <c r="E91" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>20330051920058</v>
-      </c>
-      <c r="B92" t="s">
-        <v>85</v>
-      </c>
-      <c r="C92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D92" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" t="s">
-        <v>4</v>
-      </c>
-      <c r="F92" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>20330051920059</v>
-      </c>
-      <c r="B93" t="s">
-        <v>86</v>
-      </c>
-      <c r="C93" t="s">
-        <v>117</v>
-      </c>
-      <c r="D93" t="s">
-        <v>150</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>20330051920059</v>
-      </c>
-      <c r="B94" t="s">
-        <v>86</v>
-      </c>
-      <c r="C94" t="s">
-        <v>117</v>
-      </c>
-      <c r="D94" t="s">
-        <v>150</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>20330051920059</v>
-      </c>
-      <c r="B95" t="s">
-        <v>86</v>
-      </c>
-      <c r="C95" t="s">
-        <v>117</v>
-      </c>
-      <c r="D95" t="s">
-        <v>150</v>
-      </c>
-      <c r="E95" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>20330051920059</v>
-      </c>
-      <c r="B96" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" t="s">
-        <v>117</v>
-      </c>
-      <c r="D96" t="s">
-        <v>150</v>
-      </c>
-      <c r="E96" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>20330051920061</v>
-      </c>
-      <c r="B97" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97" t="s">
-        <v>118</v>
-      </c>
-      <c r="D97" t="s">
-        <v>151</v>
-      </c>
-      <c r="E97" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>20330051920061</v>
-      </c>
-      <c r="B98" t="s">
-        <v>87</v>
-      </c>
-      <c r="C98" t="s">
-        <v>118</v>
-      </c>
-      <c r="D98" t="s">
-        <v>151</v>
-      </c>
-      <c r="E98" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>20330051920062</v>
-      </c>
-      <c r="B99" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" t="s">
-        <v>86</v>
-      </c>
-      <c r="D99" t="s">
-        <v>152</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920062</v>
-      </c>
-      <c r="B100" t="s">
-        <v>88</v>
-      </c>
-      <c r="C100" t="s">
-        <v>86</v>
-      </c>
-      <c r="D100" t="s">
-        <v>152</v>
-      </c>
-      <c r="E100" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920063</v>
-      </c>
-      <c r="B101" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" t="s">
-        <v>119</v>
-      </c>
-      <c r="D101" t="s">
-        <v>153</v>
-      </c>
-      <c r="E101" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920063</v>
-      </c>
-      <c r="B102" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" t="s">
-        <v>119</v>
-      </c>
-      <c r="D102" t="s">
-        <v>153</v>
-      </c>
-      <c r="E102" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>20330051920063</v>
-      </c>
-      <c r="B103" t="s">
-        <v>89</v>
-      </c>
-      <c r="C103" t="s">
-        <v>119</v>
-      </c>
-      <c r="D103" t="s">
-        <v>153</v>
-      </c>
-      <c r="E103" t="s">
-        <v>5</v>
-      </c>
-      <c r="F103" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>20330051920063</v>
-      </c>
-      <c r="B104" t="s">
-        <v>89</v>
-      </c>
-      <c r="C104" t="s">
-        <v>119</v>
-      </c>
-      <c r="D104" t="s">
-        <v>153</v>
-      </c>
-      <c r="E104" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>20330051920064</v>
-      </c>
-      <c r="B105" t="s">
-        <v>90</v>
-      </c>
-      <c r="C105" t="s">
-        <v>120</v>
-      </c>
-      <c r="D105" t="s">
-        <v>154</v>
-      </c>
-      <c r="E105" t="s">
-        <v>4</v>
-      </c>
-      <c r="F105" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>20330051920065</v>
-      </c>
-      <c r="B106" t="s">
-        <v>91</v>
-      </c>
-      <c r="C106" t="s">
-        <v>121</v>
-      </c>
-      <c r="D106" t="s">
-        <v>155</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>20330051920065</v>
-      </c>
-      <c r="B107" t="s">
-        <v>91</v>
-      </c>
-      <c r="C107" t="s">
-        <v>121</v>
-      </c>
-      <c r="D107" t="s">
-        <v>155</v>
-      </c>
-      <c r="E107" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>20330051920065</v>
-      </c>
-      <c r="B108" t="s">
-        <v>91</v>
-      </c>
-      <c r="C108" t="s">
-        <v>121</v>
-      </c>
-      <c r="D108" t="s">
-        <v>155</v>
-      </c>
-      <c r="E108" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>20330051920065</v>
-      </c>
-      <c r="B109" t="s">
-        <v>91</v>
-      </c>
-      <c r="C109" t="s">
-        <v>121</v>
-      </c>
-      <c r="D109" t="s">
-        <v>155</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>20330051920066</v>
-      </c>
-      <c r="B110" t="s">
-        <v>92</v>
-      </c>
-      <c r="C110" t="s">
-        <v>122</v>
-      </c>
-      <c r="D110" t="s">
-        <v>156</v>
-      </c>
-      <c r="E110" t="s">
-        <v>4</v>
-      </c>
-      <c r="F110" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>20330051920068</v>
-      </c>
-      <c r="B111" t="s">
-        <v>93</v>
-      </c>
-      <c r="C111" t="s">
-        <v>75</v>
-      </c>
-      <c r="D111" t="s">
-        <v>157</v>
-      </c>
-      <c r="E111" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>20330051920068</v>
-      </c>
-      <c r="B112" t="s">
-        <v>93</v>
-      </c>
-      <c r="C112" t="s">
-        <v>75</v>
-      </c>
-      <c r="D112" t="s">
-        <v>157</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>20330051920068</v>
-      </c>
-      <c r="B113" t="s">
-        <v>93</v>
-      </c>
-      <c r="C113" t="s">
-        <v>75</v>
-      </c>
-      <c r="D113" t="s">
-        <v>157</v>
-      </c>
-      <c r="E113" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>20330051920070</v>
-      </c>
-      <c r="B114" t="s">
-        <v>93</v>
-      </c>
-      <c r="C114" t="s">
-        <v>123</v>
-      </c>
-      <c r="D114" t="s">
-        <v>158</v>
-      </c>
-      <c r="E114" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>20330051920070</v>
-      </c>
-      <c r="B115" t="s">
-        <v>93</v>
-      </c>
-      <c r="C115" t="s">
-        <v>123</v>
-      </c>
-      <c r="D115" t="s">
-        <v>158</v>
-      </c>
-      <c r="E115" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920070</v>
-      </c>
-      <c r="B116" t="s">
-        <v>93</v>
-      </c>
-      <c r="C116" t="s">
-        <v>123</v>
-      </c>
-      <c r="D116" t="s">
-        <v>158</v>
-      </c>
-      <c r="E116" t="s">
-        <v>4</v>
-      </c>
-      <c r="F116" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920070</v>
-      </c>
-      <c r="B117" t="s">
-        <v>93</v>
-      </c>
-      <c r="C117" t="s">
-        <v>123</v>
-      </c>
-      <c r="D117" t="s">
-        <v>158</v>
-      </c>
-      <c r="E117" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>20330051920069</v>
-      </c>
-      <c r="B118" t="s">
-        <v>94</v>
-      </c>
-      <c r="C118" t="s">
-        <v>124</v>
-      </c>
-      <c r="D118" t="s">
-        <v>159</v>
-      </c>
-      <c r="E118" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>20330051920069</v>
-      </c>
-      <c r="B119" t="s">
-        <v>94</v>
-      </c>
-      <c r="C119" t="s">
-        <v>124</v>
-      </c>
-      <c r="D119" t="s">
-        <v>159</v>
-      </c>
-      <c r="E119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>20330051920069</v>
-      </c>
-      <c r="B120" t="s">
-        <v>94</v>
-      </c>
-      <c r="C120" t="s">
-        <v>124</v>
-      </c>
-      <c r="D120" t="s">
-        <v>159</v>
-      </c>
-      <c r="E120" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>20330051920386</v>
-      </c>
-      <c r="B121" t="s">
-        <v>95</v>
-      </c>
-      <c r="C121" t="s">
-        <v>125</v>
-      </c>
-      <c r="D121" t="s">
-        <v>160</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>20330051920386</v>
-      </c>
-      <c r="B122" t="s">
-        <v>95</v>
-      </c>
-      <c r="C122" t="s">
-        <v>125</v>
-      </c>
-      <c r="D122" t="s">
-        <v>160</v>
-      </c>
-      <c r="E122" t="s">
-        <v>4</v>
-      </c>
-      <c r="F122" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>20330051920386</v>
-      </c>
-      <c r="B123" t="s">
-        <v>95</v>
-      </c>
-      <c r="C123" t="s">
-        <v>125</v>
-      </c>
-      <c r="D123" t="s">
-        <v>160</v>
-      </c>
-      <c r="E123" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5843,13 +5106,13 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5860,13 +5123,13 @@
         <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5877,13 +5140,13 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5894,13 +5157,13 @@
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5911,13 +5174,13 @@
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5928,13 +5191,13 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5945,13 +5208,13 @@
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5962,13 +5225,13 @@
         <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5979,13 +5242,13 @@
         <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5996,13 +5259,13 @@
         <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6013,13 +5276,13 @@
         <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6030,13 +5293,13 @@
         <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6044,16 +5307,16 @@
         <v>20330051920089</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6061,16 +5324,16 @@
         <v>20330051920090</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6078,16 +5341,16 @@
         <v>20330051920092</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6095,16 +5358,16 @@
         <v>20330051920094</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6112,16 +5375,16 @@
         <v>20330051920059</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6129,16 +5392,16 @@
         <v>20330051920063</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6146,16 +5409,16 @@
         <v>20330051920065</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6163,169 +5426,169 @@
         <v>20330051920070</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920041</v>
+        <v>20330051920359</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920359</v>
+        <v>20330051920077</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920077</v>
+        <v>20330051920080</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920080</v>
+        <v>20330051920091</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920091</v>
+        <v>20330051920093</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920093</v>
+        <v>20330051920068</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920068</v>
+        <v>20330051920069</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920069</v>
+        <v>20330051920386</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920386</v>
+        <v>20330051920041</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6336,13 +5599,13 @@
         <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6350,16 +5613,16 @@
         <v>20330051920061</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6367,16 +5630,16 @@
         <v>20330051920062</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6384,16 +5647,16 @@
         <v>20330051920088</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6401,16 +5664,16 @@
         <v>20330051920058</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6418,16 +5681,16 @@
         <v>20330051920064</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6435,16 +5698,16 @@
         <v>20330051920066</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6454,7 +5717,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6489,19 +5752,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920075</v>
+        <v>20330051920359</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -6512,19 +5775,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920075</v>
+        <v>20330051920359</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
@@ -6535,19 +5798,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920061</v>
+        <v>20330051920091</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
@@ -6558,22 +5821,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920061</v>
+        <v>20330051920091</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -6581,19 +5844,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920062</v>
+        <v>20330051920041</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -6604,22 +5867,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920062</v>
+        <v>20330051920075</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -6627,22 +5890,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920088</v>
+        <v>20330051920061</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -6650,70 +5913,24 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920058</v>
+        <v>20330051920062</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
       </c>
       <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920064</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920066</v>
-      </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/2AEV - Estadisticos 2020.xlsx
+++ b/grupos/2AEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="161">
   <si>
     <t>Materia</t>
   </si>
@@ -218,277 +218,277 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CANUTO</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>CUAQUEHUA</t>
+  </si>
+  <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>GUILLEN</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>MIXCOHA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ROSETE</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>XALAMIHUA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>PONCE</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>BAROJAS</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>JOAQUIN</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>SALAS</t>
+  </si>
+  <si>
+    <t>URBINA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>PAUL ARAVIER</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>KARLA JOVANA</t>
+  </si>
+  <si>
+    <t>NORKYS AIRY</t>
+  </si>
+  <si>
+    <t>JORGE HUMBERTO</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>DULIAM</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>CRISTIAN JAHIR</t>
+  </si>
+  <si>
+    <t>SAID ANDRES</t>
+  </si>
+  <si>
+    <t>SAMIR</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>JOSAFAT</t>
+  </si>
+  <si>
+    <t>GABRIEL JOSUE</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DIEGO IVAN</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>JOHAN ALEJANDRO</t>
+  </si>
+  <si>
+    <t>IAN LAEL</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>ALAN URIEL</t>
+  </si>
+  <si>
+    <t>AMANDA MICHEL</t>
+  </si>
+  <si>
+    <t>VICTOR GAEL</t>
+  </si>
+  <si>
+    <t>ALDIR ADALBERTO</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>AYLIN MELISSA</t>
+  </si>
+  <si>
+    <t>ZGAIP</t>
+  </si>
+  <si>
     <t>AVENDAÑO</t>
   </si>
   <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>CANUTO</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>CUAQUEHUA</t>
-  </si>
-  <si>
-    <t>ESPINOZA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>GUILLEN</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>MIXCOHA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>ROSETE</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>CASTAÑEDA</t>
-  </si>
-  <si>
-    <t>MEDINA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>XALAMIHUA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>PONCE</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>EVARISTO</t>
-  </si>
-  <si>
-    <t>BAROJAS</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>JOAQUIN</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>SALAS</t>
-  </si>
-  <si>
-    <t>URBINA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>YAEL</t>
+    <t>MAYAHUA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SILVESTRE</t>
+  </si>
+  <si>
+    <t>TEMOXTLE</t>
+  </si>
+  <si>
+    <t>BELLO</t>
+  </si>
+  <si>
+    <t>VELASCO</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
   </si>
   <si>
     <t>AXEL JESUS</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
-    <t>PAUL ARAVIER</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>KARLA JOVANA</t>
-  </si>
-  <si>
-    <t>NORKYS AIRY</t>
-  </si>
-  <si>
-    <t>JORGE HUMBERTO</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL</t>
-  </si>
-  <si>
-    <t>ADRIAN</t>
-  </si>
-  <si>
-    <t>DULIAM</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>CRISTIAN JAHIR</t>
-  </si>
-  <si>
-    <t>SAID ANDRES</t>
-  </si>
-  <si>
-    <t>SAMIR</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>JOSAFAT</t>
-  </si>
-  <si>
-    <t>GABRIEL JOSUE</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>DIEGO IVAN</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>JOHAN ALEJANDRO</t>
-  </si>
-  <si>
-    <t>IAN LAEL</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>ALAN URIEL</t>
-  </si>
-  <si>
-    <t>AMANDA MICHEL</t>
-  </si>
-  <si>
-    <t>VICTOR GAEL</t>
-  </si>
-  <si>
-    <t>ALDIR ADALBERTO</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>AYLIN MELISSA</t>
-  </si>
-  <si>
-    <t>ZGAIP</t>
-  </si>
-  <si>
-    <t>MAYAHUA</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SILVESTRE</t>
-  </si>
-  <si>
-    <t>TEMOXTLE</t>
-  </si>
-  <si>
-    <t>BELLO</t>
-  </si>
-  <si>
-    <t>VELASCO</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
   </si>
   <si>
     <t>ELIAS</t>
@@ -990,7 +990,7 @@
         <v>9</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>9</v>
@@ -1226,7 +1226,7 @@
         <v>6</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L8">
         <v>8</v>
@@ -3146,25 +3146,25 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>13.89</v>
+        <v>19.44</v>
       </c>
       <c r="G2">
-        <v>36.11</v>
+        <v>30.56</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="I2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2">
-        <v>86.11</v>
+        <v>80.56</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3334,7 +3334,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3366,22 +3366,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920041</v>
+        <v>20330051920071</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3389,19 +3389,19 @@
         <v>20330051920071</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3409,19 +3409,19 @@
         <v>20330051920071</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3429,39 +3429,39 @@
         <v>20330051920071</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920071</v>
+        <v>20330051920072</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3469,19 +3469,19 @@
         <v>20330051920072</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3489,39 +3489,39 @@
         <v>20330051920072</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920072</v>
+        <v>20330051920073</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3529,19 +3529,19 @@
         <v>20330051920073</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3549,73 +3549,73 @@
         <v>20330051920073</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920073</v>
+        <v>20330051920359</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920359</v>
+        <v>20330051920074</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920359</v>
+        <v>20330051920074</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -3629,47 +3629,47 @@
         <v>20330051920074</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920074</v>
+        <v>20330051920075</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920074</v>
+        <v>20330051920076</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
         <v>96</v>
@@ -3686,22 +3686,22 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920075</v>
+        <v>20330051920076</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3709,19 +3709,19 @@
         <v>20330051920076</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3729,93 +3729,93 @@
         <v>20330051920076</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920076</v>
+        <v>20330051920077</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920076</v>
+        <v>20330051920077</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920077</v>
+        <v>20330051920078</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920077</v>
+        <v>20330051920078</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -3829,19 +3829,19 @@
         <v>20330051920078</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3849,33 +3849,33 @@
         <v>20330051920078</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920078</v>
+        <v>20330051920080</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -3886,62 +3886,62 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920078</v>
+        <v>20330051920080</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920080</v>
+        <v>20330051920081</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920080</v>
+        <v>20330051920081</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3949,59 +3949,59 @@
         <v>20330051920081</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920081</v>
+        <v>20330051920082</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920081</v>
+        <v>20330051920082</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4009,59 +4009,59 @@
         <v>20330051920082</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920082</v>
+        <v>20330051920083</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920082</v>
+        <v>20330051920083</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4069,19 +4069,19 @@
         <v>20330051920083</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4089,53 +4089,53 @@
         <v>20330051920083</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920083</v>
+        <v>20330051920084</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920083</v>
+        <v>20330051920084</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -4149,59 +4149,59 @@
         <v>20330051920084</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920084</v>
+        <v>20330051920085</v>
       </c>
       <c r="B42" t="s">
         <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920084</v>
+        <v>20330051920085</v>
       </c>
       <c r="B43" t="s">
         <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4209,19 +4209,19 @@
         <v>20330051920085</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4229,59 +4229,59 @@
         <v>20330051920085</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920085</v>
+        <v>20330051920087</v>
       </c>
       <c r="B46" t="s">
         <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920085</v>
+        <v>20330051920087</v>
       </c>
       <c r="B47" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4289,59 +4289,59 @@
         <v>20330051920087</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920087</v>
+        <v>20330051920089</v>
       </c>
       <c r="B49" t="s">
         <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920087</v>
+        <v>20330051920089</v>
       </c>
       <c r="B50" t="s">
         <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4349,59 +4349,59 @@
         <v>20330051920089</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920089</v>
+        <v>20330051920090</v>
       </c>
       <c r="B52" t="s">
         <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920089</v>
+        <v>20330051920090</v>
       </c>
       <c r="B53" t="s">
         <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4409,73 +4409,73 @@
         <v>20330051920090</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920090</v>
+        <v>20330051920091</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920090</v>
+        <v>20330051920091</v>
       </c>
       <c r="B56" t="s">
         <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920091</v>
+        <v>20330051920092</v>
       </c>
       <c r="B57" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -4486,16 +4486,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920091</v>
+        <v>20330051920092</v>
       </c>
       <c r="B58" t="s">
         <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
@@ -4509,99 +4509,99 @@
         <v>20330051920092</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20330051920092</v>
+        <v>20330051920093</v>
       </c>
       <c r="B60" t="s">
         <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20330051920092</v>
+        <v>20330051920093</v>
       </c>
       <c r="B61" t="s">
         <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20330051920093</v>
+        <v>20330051920094</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
         <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20330051920093</v>
+        <v>20330051920094</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
         <v>109</v>
       </c>
       <c r="D63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4609,24 +4609,24 @@
         <v>20330051920094</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20330051920094</v>
+        <v>20330051920059</v>
       </c>
       <c r="B65" t="s">
         <v>83</v>
@@ -4635,18 +4635,18 @@
         <v>110</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>20330051920094</v>
+        <v>20330051920059</v>
       </c>
       <c r="B66" t="s">
         <v>83</v>
@@ -4655,13 +4655,13 @@
         <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4669,24 +4669,24 @@
         <v>20330051920059</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>20330051920059</v>
+        <v>20330051920061</v>
       </c>
       <c r="B68" t="s">
         <v>84</v>
@@ -4695,41 +4695,41 @@
         <v>111</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>20330051920059</v>
+        <v>20330051920062</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
         <v>140</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>20330051920061</v>
+        <v>20330051920063</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
         <v>112</v>
@@ -4738,30 +4738,30 @@
         <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>20330051920062</v>
+        <v>20330051920063</v>
       </c>
       <c r="B71" t="s">
         <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4769,24 +4769,24 @@
         <v>20330051920063</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>20330051920063</v>
+        <v>20330051920065</v>
       </c>
       <c r="B73" t="s">
         <v>87</v>
@@ -4795,18 +4795,18 @@
         <v>113</v>
       </c>
       <c r="D73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>20330051920063</v>
+        <v>20330051920065</v>
       </c>
       <c r="B74" t="s">
         <v>87</v>
@@ -4815,13 +4815,13 @@
         <v>113</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4829,99 +4829,99 @@
         <v>20330051920065</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>20330051920065</v>
+        <v>20330051920068</v>
       </c>
       <c r="B76" t="s">
         <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>20330051920065</v>
+        <v>20330051920068</v>
       </c>
       <c r="B77" t="s">
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E77" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>20330051920068</v>
+        <v>20330051920070</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="D78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>20330051920068</v>
+        <v>20330051920070</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="D79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4929,24 +4929,24 @@
         <v>20330051920070</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D80" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>20330051920070</v>
+        <v>20330051920069</v>
       </c>
       <c r="B81" t="s">
         <v>89</v>
@@ -4955,18 +4955,18 @@
         <v>115</v>
       </c>
       <c r="D81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>20330051920070</v>
+        <v>20330051920069</v>
       </c>
       <c r="B82" t="s">
         <v>89</v>
@@ -4975,18 +4975,18 @@
         <v>115</v>
       </c>
       <c r="D82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>20330051920069</v>
+        <v>20330051920386</v>
       </c>
       <c r="B83" t="s">
         <v>90</v>
@@ -4995,7 +4995,7 @@
         <v>116</v>
       </c>
       <c r="D83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>20330051920069</v>
+        <v>20330051920386</v>
       </c>
       <c r="B84" t="s">
         <v>90</v>
@@ -5015,52 +5015,12 @@
         <v>116</v>
       </c>
       <c r="D84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>20330051920386</v>
-      </c>
-      <c r="B85" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" t="s">
-        <v>148</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>20330051920386</v>
-      </c>
-      <c r="B86" t="s">
-        <v>91</v>
-      </c>
-      <c r="C86" t="s">
-        <v>117</v>
-      </c>
-      <c r="D86" t="s">
-        <v>148</v>
-      </c>
-      <c r="E86" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5103,13 +5063,13 @@
         <v>20330051920071</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -5120,13 +5080,13 @@
         <v>20330051920076</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -5137,13 +5097,13 @@
         <v>20330051920078</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -5154,13 +5114,13 @@
         <v>20330051920083</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -5171,13 +5131,13 @@
         <v>20330051920085</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -5188,13 +5148,13 @@
         <v>20330051920072</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -5205,13 +5165,13 @@
         <v>20330051920073</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -5222,13 +5182,13 @@
         <v>20330051920074</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -5239,13 +5199,13 @@
         <v>20330051920081</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -5256,13 +5216,13 @@
         <v>20330051920082</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -5273,13 +5233,13 @@
         <v>20330051920084</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -5290,13 +5250,13 @@
         <v>20330051920087</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -5307,13 +5267,13 @@
         <v>20330051920089</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -5324,13 +5284,13 @@
         <v>20330051920090</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -5341,13 +5301,13 @@
         <v>20330051920092</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -5358,13 +5318,13 @@
         <v>20330051920094</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -5375,13 +5335,13 @@
         <v>20330051920059</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -5392,13 +5352,13 @@
         <v>20330051920063</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -5409,13 +5369,13 @@
         <v>20330051920065</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -5426,13 +5386,13 @@
         <v>20330051920070</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -5440,16 +5400,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920359</v>
+        <v>20330051920077</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -5457,13 +5417,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920077</v>
+        <v>20330051920080</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
         <v>126</v>
@@ -5474,16 +5434,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920080</v>
+        <v>20330051920091</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -5491,16 +5451,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920091</v>
+        <v>20330051920093</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
         <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -5508,16 +5468,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920093</v>
+        <v>20330051920068</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -5525,13 +5485,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920068</v>
+        <v>20330051920069</v>
       </c>
       <c r="B27" t="s">
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
         <v>145</v>
@@ -5542,7 +5502,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920069</v>
+        <v>20330051920386</v>
       </c>
       <c r="B28" t="s">
         <v>90</v>
@@ -5551,7 +5511,7 @@
         <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -5559,33 +5519,33 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920386</v>
+        <v>20330051920359</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920041</v>
+        <v>20330051920075</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5593,16 +5553,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920075</v>
+        <v>20330051920061</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -5610,16 +5570,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920061</v>
+        <v>20330051920062</v>
       </c>
       <c r="B32" t="s">
         <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -5627,19 +5587,19 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920062</v>
+        <v>20330051920041</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5647,10 +5607,10 @@
         <v>20330051920088</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34" t="s">
         <v>157</v>
@@ -5664,10 +5624,10 @@
         <v>20330051920058</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D35" t="s">
         <v>158</v>
@@ -5681,10 +5641,10 @@
         <v>20330051920064</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36" t="s">
         <v>159</v>
@@ -5698,10 +5658,10 @@
         <v>20330051920066</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
         <v>160</v>
@@ -5717,7 +5677,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5752,16 +5712,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920359</v>
+        <v>20330051920091</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -5775,16 +5735,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920359</v>
+        <v>20330051920091</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -5798,22 +5758,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920091</v>
+        <v>20330051920359</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -5821,22 +5781,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920091</v>
+        <v>20330051920075</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5844,22 +5804,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920041</v>
+        <v>20330051920061</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -5867,16 +5827,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920075</v>
+        <v>20330051920062</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -5885,52 +5845,6 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920061</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920062</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/2AEV - Estadisticos 2020.xlsx
+++ b/grupos/2AEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="161">
   <si>
     <t>Materia</t>
   </si>
@@ -188,21 +188,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Zarate Amezcua Eladio Jorge</t>
+  </si>
+  <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
+    <t>Contreras Díaz Irma Ivette</t>
+  </si>
+  <si>
+    <t>Villanueva Morales Luis Arturo</t>
+  </si>
+  <si>
     <t>Medina Tolentino Francisco</t>
   </si>
   <si>
-    <t>Zarate Amezcua Eladio Jorge</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
-    <t>Contreras Díaz Irma Ivette</t>
-  </si>
-  <si>
-    <t>Villanueva Morales Luis Arturo</t>
-  </si>
-  <si>
     <t>Silva Villegas Mario</t>
   </si>
   <si>
@@ -233,268 +233,268 @@
     <t>CHAVEZ</t>
   </si>
   <si>
+    <t>CUAQUEHUA</t>
+  </si>
+  <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>GUILLEN</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>MIXCOHA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>ROSETE</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>XALAMIHUA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>PONCE</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>BAROJAS</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>JOAQUIN</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>SALAS</t>
+  </si>
+  <si>
+    <t>URBINA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>PAUL ARAVIER</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>KARLA JOVANA</t>
+  </si>
+  <si>
+    <t>NORKYS AIRY</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>DULIAM</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>CRISTIAN JAHIR</t>
+  </si>
+  <si>
+    <t>SAID ANDRES</t>
+  </si>
+  <si>
+    <t>SAMIR</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>JOSAFAT</t>
+  </si>
+  <si>
+    <t>GABRIEL JOSUE</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DIEGO IVAN</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>JOHAN ALEJANDRO</t>
+  </si>
+  <si>
+    <t>IAN LAEL</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>ALAN URIEL</t>
+  </si>
+  <si>
+    <t>VICTOR GAEL</t>
+  </si>
+  <si>
+    <t>ALDIR ADALBERTO</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>AYLIN MELISSA</t>
+  </si>
+  <si>
+    <t>ZGAIP</t>
+  </si>
+  <si>
+    <t>AVENDAÑO</t>
+  </si>
+  <si>
     <t>CONTRERAS</t>
   </si>
   <si>
-    <t>CUAQUEHUA</t>
-  </si>
-  <si>
-    <t>ESPINOZA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>GUILLEN</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>MIXCOHA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>ROSETE</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>CASTAÑEDA</t>
-  </si>
-  <si>
-    <t>MEDINA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
+    <t>MAYAHUA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SILVESTRE</t>
   </si>
   <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>XALAMIHUA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>PONCE</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>EVARISTO</t>
-  </si>
-  <si>
-    <t>BAROJAS</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>JOAQUIN</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>SALAS</t>
-  </si>
-  <si>
-    <t>URBINA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>YAEL</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
-    <t>PAUL ARAVIER</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>KARLA JOVANA</t>
-  </si>
-  <si>
-    <t>NORKYS AIRY</t>
+    <t>TEMOXTLE</t>
+  </si>
+  <si>
+    <t>BELLO</t>
+  </si>
+  <si>
+    <t>VELASCO</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>AXEL JESUS</t>
   </si>
   <si>
     <t>JORGE HUMBERTO</t>
   </si>
   <si>
-    <t>JOSE DANIEL</t>
-  </si>
-  <si>
-    <t>ADRIAN</t>
-  </si>
-  <si>
-    <t>DULIAM</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>CRISTIAN JAHIR</t>
-  </si>
-  <si>
-    <t>SAID ANDRES</t>
-  </si>
-  <si>
-    <t>SAMIR</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>JOSAFAT</t>
-  </si>
-  <si>
-    <t>GABRIEL JOSUE</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>DIEGO IVAN</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>JOHAN ALEJANDRO</t>
-  </si>
-  <si>
-    <t>IAN LAEL</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>ALAN URIEL</t>
+    <t>ELIAS</t>
+  </si>
+  <si>
+    <t>ZURIEL ARTURO</t>
   </si>
   <si>
     <t>AMANDA MICHEL</t>
-  </si>
-  <si>
-    <t>VICTOR GAEL</t>
-  </si>
-  <si>
-    <t>ALDIR ADALBERTO</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>AYLIN MELISSA</t>
-  </si>
-  <si>
-    <t>ZGAIP</t>
-  </si>
-  <si>
-    <t>AVENDAÑO</t>
-  </si>
-  <si>
-    <t>MAYAHUA</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SILVESTRE</t>
-  </si>
-  <si>
-    <t>TEMOXTLE</t>
-  </si>
-  <si>
-    <t>BELLO</t>
-  </si>
-  <si>
-    <t>VELASCO</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>AXEL JESUS</t>
-  </si>
-  <si>
-    <t>ELIAS</t>
-  </si>
-  <si>
-    <t>ZURIEL ARTURO</t>
   </si>
   <si>
     <t>JORGE ALEJANDRO</t>
@@ -1031,7 +1031,7 @@
         <v>-1</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1049,7 +1049,7 @@
         <v>-1</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -1090,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -1108,7 +1108,7 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -1167,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -1267,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1285,7 +1285,7 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -1344,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <v>8</v>
@@ -1385,7 +1385,7 @@
         <v>-1</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -1403,7 +1403,7 @@
         <v>-1</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -1462,7 +1462,7 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -1503,7 +1503,7 @@
         <v>-1</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -1521,7 +1521,7 @@
         <v>-1</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1562,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -1580,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -1639,7 +1639,7 @@
         <v>6</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <v>5</v>
@@ -1680,7 +1680,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -1698,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L16">
         <v>5</v>
@@ -1739,7 +1739,7 @@
         <v>-1</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1757,7 +1757,7 @@
         <v>-1</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -1798,7 +1798,7 @@
         <v>6</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -1816,7 +1816,7 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -1857,7 +1857,7 @@
         <v>-1</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -1875,7 +1875,7 @@
         <v>-1</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -1934,7 +1934,7 @@
         <v>6</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -2034,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -2052,7 +2052,7 @@
         <v>6</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L22">
         <v>5</v>
@@ -2111,7 +2111,7 @@
         <v>8</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <v>8</v>
@@ -2170,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L24">
         <v>6</v>
@@ -2229,7 +2229,7 @@
         <v>8</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L25">
         <v>6</v>
@@ -2270,7 +2270,7 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -2288,7 +2288,7 @@
         <v>6</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L26">
         <v>5</v>
@@ -2347,7 +2347,7 @@
         <v>10</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L27">
         <v>6</v>
@@ -2388,7 +2388,7 @@
         <v>6</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -2406,7 +2406,7 @@
         <v>6</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L28">
         <v>5</v>
@@ -2506,7 +2506,7 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -2524,7 +2524,7 @@
         <v>6</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L30">
         <v>5</v>
@@ -2701,7 +2701,7 @@
         <v>8</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L33">
         <v>10</v>
@@ -2742,7 +2742,7 @@
         <v>6</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -2760,7 +2760,7 @@
         <v>6</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L34">
         <v>5</v>
@@ -2801,7 +2801,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -2819,7 +2819,7 @@
         <v>7</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L35">
         <v>5</v>
@@ -2937,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L37">
         <v>5</v>
@@ -2978,7 +2978,7 @@
         <v>6</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -2996,7 +2996,7 @@
         <v>6</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L38">
         <v>5</v>
@@ -3055,7 +3055,7 @@
         <v>6</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L39">
         <v>6</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -3146,30 +3146,30 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>19.44</v>
+        <v>22.22</v>
       </c>
       <c r="G2">
-        <v>30.56</v>
+        <v>77.78</v>
       </c>
       <c r="H2">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="I2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>80.56</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -3178,30 +3178,30 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>22.22</v>
+        <v>36.11</v>
       </c>
       <c r="G3">
-        <v>77.78</v>
+        <v>33.33</v>
       </c>
       <c r="H3">
-        <v>8.9</v>
+        <v>6.7</v>
       </c>
       <c r="I3">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J3">
-        <v>77.78</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -3210,30 +3210,30 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>36.11</v>
+        <v>38.89</v>
       </c>
       <c r="G4">
-        <v>33.33</v>
+        <v>61.11</v>
       </c>
       <c r="H4">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>55.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -3242,30 +3242,30 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>38.89</v>
+        <v>83.33</v>
       </c>
       <c r="G5">
-        <v>61.11</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -3274,25 +3274,25 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>83.33</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3334,7 +3334,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3372,16 +3372,16 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3392,16 +3392,16 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3412,36 +3412,36 @@
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920071</v>
+        <v>20330051920072</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3452,84 +3452,84 @@
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920072</v>
+        <v>20330051920073</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920072</v>
+        <v>20330051920073</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920073</v>
+        <v>20330051920359</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920073</v>
+        <v>20330051920074</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>93</v>
@@ -3541,15 +3541,15 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920073</v>
+        <v>20330051920074</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
         <v>93</v>
@@ -3558,27 +3558,27 @@
         <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920359</v>
+        <v>20330051920076</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
         <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
@@ -3586,59 +3586,59 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920074</v>
+        <v>20330051920076</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
         <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920074</v>
+        <v>20330051920076</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920074</v>
+        <v>20330051920077</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
         <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
@@ -3646,70 +3646,70 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920075</v>
+        <v>20330051920078</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
         <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920076</v>
+        <v>20330051920078</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920076</v>
+        <v>20330051920078</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920076</v>
+        <v>20330051920080</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
         <v>96</v>
@@ -3721,32 +3721,32 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920076</v>
+        <v>20330051920081</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920077</v>
+        <v>20330051920081</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -3758,27 +3758,27 @@
         <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920077</v>
+        <v>20330051920082</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
         <v>57</v>
@@ -3786,99 +3786,99 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920078</v>
+        <v>20330051920082</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920078</v>
+        <v>20330051920083</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920078</v>
+        <v>20330051920083</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920078</v>
+        <v>20330051920083</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920080</v>
+        <v>20330051920084</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
         <v>56</v>
@@ -3886,19 +3886,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920080</v>
+        <v>20330051920084</v>
       </c>
       <c r="B28" t="s">
         <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
         <v>57</v>
@@ -3906,119 +3906,119 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920081</v>
+        <v>20330051920085</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920081</v>
+        <v>20330051920085</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920081</v>
+        <v>20330051920085</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920082</v>
+        <v>20330051920087</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920082</v>
+        <v>20330051920087</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920082</v>
+        <v>20330051920089</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
         <v>56</v>
@@ -4026,19 +4026,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920083</v>
+        <v>20330051920089</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
         <v>57</v>
@@ -4046,59 +4046,59 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920083</v>
+        <v>20330051920090</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920083</v>
+        <v>20330051920090</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920083</v>
+        <v>20330051920091</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
         <v>56</v>
@@ -4106,79 +4106,79 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920084</v>
+        <v>20330051920092</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920084</v>
+        <v>20330051920092</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920084</v>
+        <v>20330051920093</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920085</v>
+        <v>20330051920094</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
         <v>57</v>
@@ -4186,19 +4186,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920085</v>
+        <v>20330051920094</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
         <v>56</v>
@@ -4206,99 +4206,99 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920085</v>
+        <v>20330051920059</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920085</v>
+        <v>20330051920059</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920087</v>
+        <v>20330051920061</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920087</v>
+        <v>20330051920063</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920087</v>
+        <v>20330051920063</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
         <v>56</v>
@@ -4306,19 +4306,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920089</v>
+        <v>20330051920065</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
         <v>56</v>
@@ -4326,59 +4326,59 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920089</v>
+        <v>20330051920065</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920089</v>
+        <v>20330051920068</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920090</v>
+        <v>20330051920070</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
         <v>57</v>
@@ -4386,19 +4386,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920090</v>
+        <v>20330051920070</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
         <v>56</v>
@@ -4406,621 +4406,41 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920090</v>
+        <v>20330051920069</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920091</v>
+        <v>20330051920386</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>20330051920091</v>
-      </c>
-      <c r="B56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>20330051920092</v>
-      </c>
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" t="s">
-        <v>135</v>
-      </c>
-      <c r="E57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>20330051920092</v>
-      </c>
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" t="s">
-        <v>135</v>
-      </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>20330051920092</v>
-      </c>
-      <c r="B59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" t="s">
-        <v>107</v>
-      </c>
-      <c r="D59" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>20330051920093</v>
-      </c>
-      <c r="B60" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" t="s">
-        <v>136</v>
-      </c>
-      <c r="E60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>20330051920093</v>
-      </c>
-      <c r="B61" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61" t="s">
-        <v>136</v>
-      </c>
-      <c r="E61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>20330051920094</v>
-      </c>
-      <c r="B62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" t="s">
-        <v>137</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>20330051920094</v>
-      </c>
-      <c r="B63" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" t="s">
-        <v>137</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>20330051920094</v>
-      </c>
-      <c r="B64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" t="s">
-        <v>137</v>
-      </c>
-      <c r="E64" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>20330051920059</v>
-      </c>
-      <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>20330051920059</v>
-      </c>
-      <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66" t="s">
-        <v>138</v>
-      </c>
-      <c r="E66" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>20330051920059</v>
-      </c>
-      <c r="B67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" t="s">
-        <v>110</v>
-      </c>
-      <c r="D67" t="s">
-        <v>138</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>20330051920061</v>
-      </c>
-      <c r="B68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" t="s">
-        <v>111</v>
-      </c>
-      <c r="D68" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>20330051920062</v>
-      </c>
-      <c r="B69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>20330051920063</v>
-      </c>
-      <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>112</v>
-      </c>
-      <c r="D70" t="s">
-        <v>141</v>
-      </c>
-      <c r="E70" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>20330051920063</v>
-      </c>
-      <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>112</v>
-      </c>
-      <c r="D71" t="s">
-        <v>141</v>
-      </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>20330051920063</v>
-      </c>
-      <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>112</v>
-      </c>
-      <c r="D72" t="s">
-        <v>141</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>20330051920065</v>
-      </c>
-      <c r="B73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" t="s">
-        <v>113</v>
-      </c>
-      <c r="D73" t="s">
-        <v>142</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>20330051920065</v>
-      </c>
-      <c r="B74" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" t="s">
-        <v>113</v>
-      </c>
-      <c r="D74" t="s">
-        <v>142</v>
-      </c>
-      <c r="E74" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>20330051920065</v>
-      </c>
-      <c r="B75" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" t="s">
-        <v>142</v>
-      </c>
-      <c r="E75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>20330051920068</v>
-      </c>
-      <c r="B76" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" t="s">
-        <v>143</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>20330051920068</v>
-      </c>
-      <c r="B77" t="s">
-        <v>88</v>
-      </c>
-      <c r="C77" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77" t="s">
-        <v>143</v>
-      </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>20330051920070</v>
-      </c>
-      <c r="B78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" t="s">
-        <v>144</v>
-      </c>
-      <c r="E78" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>20330051920070</v>
-      </c>
-      <c r="B79" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" t="s">
-        <v>114</v>
-      </c>
-      <c r="D79" t="s">
-        <v>144</v>
-      </c>
-      <c r="E79" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>20330051920070</v>
-      </c>
-      <c r="B80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" t="s">
-        <v>114</v>
-      </c>
-      <c r="D80" t="s">
-        <v>144</v>
-      </c>
-      <c r="E80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>20330051920069</v>
-      </c>
-      <c r="B81" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" t="s">
-        <v>145</v>
-      </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>20330051920069</v>
-      </c>
-      <c r="B82" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" t="s">
-        <v>115</v>
-      </c>
-      <c r="D82" t="s">
-        <v>145</v>
-      </c>
-      <c r="E82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>20330051920386</v>
-      </c>
-      <c r="B83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83" t="s">
-        <v>116</v>
-      </c>
-      <c r="D83" t="s">
-        <v>146</v>
-      </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>20330051920386</v>
-      </c>
-      <c r="B84" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84" t="s">
-        <v>116</v>
-      </c>
-      <c r="D84" t="s">
-        <v>146</v>
-      </c>
-      <c r="E84" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5066,13 +4486,13 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5080,16 +4500,16 @@
         <v>20330051920076</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5097,16 +4517,16 @@
         <v>20330051920078</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5114,16 +4534,16 @@
         <v>20330051920083</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5131,16 +4551,16 @@
         <v>20330051920085</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5151,13 +4571,13 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5168,13 +4588,13 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5185,13 +4605,13 @@
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5199,16 +4619,16 @@
         <v>20330051920081</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5216,16 +4636,16 @@
         <v>20330051920082</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5233,16 +4653,16 @@
         <v>20330051920084</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5250,16 +4670,16 @@
         <v>20330051920087</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5267,16 +4687,16 @@
         <v>20330051920089</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5284,16 +4704,16 @@
         <v>20330051920090</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5301,16 +4721,16 @@
         <v>20330051920092</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5318,16 +4738,16 @@
         <v>20330051920094</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5335,16 +4755,16 @@
         <v>20330051920059</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5352,16 +4772,16 @@
         <v>20330051920063</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5369,16 +4789,16 @@
         <v>20330051920065</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5386,149 +4806,149 @@
         <v>20330051920070</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920077</v>
+        <v>20330051920359</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920080</v>
+        <v>20330051920077</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920091</v>
+        <v>20330051920080</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920093</v>
+        <v>20330051920091</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920068</v>
+        <v>20330051920093</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920069</v>
+        <v>20330051920061</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920386</v>
+        <v>20330051920068</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920359</v>
+        <v>20330051920069</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5536,16 +4956,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920075</v>
+        <v>20330051920386</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5553,47 +4973,47 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920061</v>
+        <v>20330051920041</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920062</v>
+        <v>20330051920075</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920041</v>
+        <v>20330051920088</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
         <v>156</v>
@@ -5604,13 +5024,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920088</v>
+        <v>20330051920058</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
         <v>157</v>
@@ -5621,13 +5041,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920058</v>
+        <v>20330051920062</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
         <v>158</v>
@@ -5641,10 +5061,10 @@
         <v>20330051920064</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
         <v>159</v>
@@ -5658,10 +5078,10 @@
         <v>20330051920066</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
         <v>160</v>
@@ -5677,7 +5097,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5712,22 +5132,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920091</v>
+        <v>20330051920087</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -5735,22 +5155,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920091</v>
+        <v>20330051920087</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -5758,19 +5178,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920359</v>
+        <v>20330051920090</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>57</v>
@@ -5781,19 +5201,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920075</v>
+        <v>20330051920090</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -5804,47 +5224,254 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920061</v>
+        <v>20330051920093</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920062</v>
+        <v>20330051920093</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
       </c>
       <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920068</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920068</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920069</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920069</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920386</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920386</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920359</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920091</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20330051920061</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16">
         <v>-1</v>
       </c>
     </row>
